--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -7,15 +7,147 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="3mL" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="3mL Bomba 2" sheetId="4" r:id="rId1"/>
+    <sheet name="3mL" sheetId="1" r:id="rId2"/>
+    <sheet name="CalibracionBomba1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>NANOMEDICINA</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2 gotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2 gotas
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10 gotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+teorico/experimental</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20 gotas</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>NANOMEDICINA</author>
@@ -124,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="23">
   <si>
     <t>uL/h</t>
   </si>
@@ -173,6 +305,27 @@
   <si>
     <t xml:space="preserve">Flujo </t>
   </si>
+  <si>
+    <t>Flujo exp eq (mg/min)</t>
+  </si>
+  <si>
+    <t>190/179</t>
+  </si>
+  <si>
+    <t>32/31</t>
+  </si>
+  <si>
+    <t>952/896</t>
+  </si>
+  <si>
+    <t>1904/1793</t>
+  </si>
+  <si>
+    <t>9520/</t>
+  </si>
+  <si>
+    <t>19040/</t>
+  </si>
 </sst>
 </file>
 
@@ -180,7 +333,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -393,11 +546,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,45 +620,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,11 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,20 +647,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +960,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:J18"/>
+      <selection activeCell="H21" sqref="H21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,39 +990,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="4"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -863,59 +1034,59 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="T2" t="s">
@@ -929,674 +1100,714 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="4">
         <v>346</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="5">
         <f>B3/($U$1*$U$2)</f>
         <v>5.7666666666666665E-3</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="6">
         <f>C3*1000</f>
         <v>5.7666666666666666</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="4">
         <v>1000</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="5">
         <f>E3/($U$1*$U$2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="6">
         <f>F3*1000</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="4">
         <v>2000</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="5">
         <f>H3/($U$1*$U$2)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="6">
         <f>I3*1000</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="4">
         <v>5000</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="5">
         <f>K3/($U$1*$U$2)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="6">
         <f>L3*1000</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="4">
         <v>10000</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="5">
         <f>N3/($U$1*$U$2)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="6">
         <f>O3*1000</f>
         <v>166.66666666666666</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="4">
         <v>15000</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="5">
         <f>Q3/($U$1*$U$2)</f>
         <v>0.25</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="6">
         <f>R3*1000</f>
         <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8">
-        <v>29.7</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="8">
-        <v>82.7</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="8">
-        <v>174.8</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="8">
-        <v>258.39999999999998</v>
-      </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="10"/>
+      <c r="B4" s="27">
+        <f>36.2/7.05</f>
+        <v>5.1347517730496461</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="27">
+        <f>39/1.16</f>
+        <v>33.620689655172413</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="27">
+        <f>195/1.09</f>
+        <v>178.89908256880733</v>
+      </c>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8">
-        <v>29.2</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8">
-        <v>75.2</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="8">
-        <v>169.9</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="30">
-        <v>248</v>
-      </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="32"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="27">
+        <f>37.9/7.11</f>
+        <v>5.3305203938115326</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="27">
+        <f>38.6/1.17</f>
+        <v>32.991452991452995</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="27">
+        <f>194/1.11</f>
+        <v>174.77477477477476</v>
+      </c>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8">
-        <v>29.3</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="8">
-        <v>80.2</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="8">
-        <v>161.9</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="8">
-        <v>258.2</v>
-      </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="10"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="27">
+        <f>37/7.03</f>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="27">
+        <f>38.2/1.16</f>
+        <v>32.931034482758626</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="27">
+        <f>194.3/1.1</f>
+        <v>176.63636363636363</v>
+      </c>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8">
-        <v>31.8</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="8">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="8">
-        <v>167.3</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="30">
-        <v>228</v>
-      </c>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="27">
+        <f>36/6.48</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="27">
+        <f>38/1.15</f>
+        <v>33.04347826086957</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="27">
+        <f>192.4/1.08</f>
+        <v>178.14814814814815</v>
+      </c>
+      <c r="O7" s="28"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8">
-        <v>26.6</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="8">
-        <v>80.2</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="8">
-        <v>164.2</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="8">
-        <v>243.5</v>
-      </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="27">
+        <f>32.8/6.39</f>
+        <v>5.1330203442879494</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="27">
+        <f>38.1/1.14</f>
+        <v>33.421052631578952</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="27">
+        <f>191.8/1.09</f>
+        <v>175.96330275229357</v>
+      </c>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="11">
-        <v>29.7</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11">
-        <v>78.2</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="11">
-        <v>161.19999999999999</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="8">
-        <v>243.2</v>
-      </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="27">
+        <f>35.5/7.25</f>
+        <v>4.8965517241379306</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="27">
+        <f>37.8/1.12</f>
+        <v>33.749999999999993</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="27">
+        <f>191.7/1.1</f>
+        <v>174.27272727272725</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="17"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19">
-        <v>31</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="19">
+      <c r="B10" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="30">
         <v>89</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19">
-        <v>179</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19">
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="30">
         <v>448</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="19">
-        <v>896</v>
-      </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="19">
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="30">
         <v>1345</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="25">
-        <v>4995.08</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="25">
-        <v>9990.15</v>
-      </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="25">
-        <v>14996.38</v>
-      </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="36">
+        <f>(336.12*1000)/($U$1*$U$2)/2</f>
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="36">
+        <f>(1995.71*1000)/($U$1*$U$2)</f>
+        <v>33.261833333333335</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="36">
+        <f>(9999.6*1000)/($U$1*$U$2)</f>
+        <v>166.66</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="38"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="2" t="s">
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="2" t="s">
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="2" t="s">
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="4"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="4">
         <v>20000</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="5">
         <f>B15/($U$1*$U$2)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="6">
         <f>C15*1000</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="4">
         <v>50000</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="5">
         <f>E15/($U$1*$U$2)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="6">
         <f>F15*1000</f>
         <v>833.33333333333337</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="4">
         <v>100000</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="5">
         <f>H15/($U$1*$U$2)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="6">
         <f>I15*1000</f>
         <v>1666.6666666666667</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="4">
         <v>150000</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="5">
         <f>K15/($U$1*$U$2)</f>
         <v>2.5</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="6">
         <f>L15*1000</f>
         <v>2500</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="4">
         <v>200000</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="5">
         <f>N15/($U$1*$U$2)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="6">
         <f>O15*1000</f>
         <v>3333.3333333333335</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="4">
         <v>278744</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="5">
         <f>Q15/($U$1*$U$2)</f>
         <v>4.6457333333333333</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="6">
         <f>R15*1000</f>
         <v>4645.7333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8">
-        <v>334.6</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8">
-        <v>813</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="10"/>
+      <c r="B16" s="27">
+        <f>407.7/1.1</f>
+        <v>370.63636363636357</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="27">
+        <f>1804.7/1.03</f>
+        <v>1752.1359223300972</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="30">
-        <v>338</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="32"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="27">
+        <f>401.3/1.09</f>
+        <v>368.16513761467888</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="27">
+        <f>1744/1.01</f>
+        <v>1726.7326732673266</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="29"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="8">
-        <v>301.2</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="10"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="27">
+        <f>413.2/1.12</f>
+        <v>368.92857142857139</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="27">
+        <f>1786/1.02</f>
+        <v>1750.9803921568628</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="17"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="8">
-        <v>331.3</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="32"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="27">
+        <f>406.3/1.11</f>
+        <v>366.03603603603602</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="27">
+        <f>1801.7/1.02</f>
+        <v>1766.372549019608</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="8">
-        <v>326.3</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="10"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="27">
+        <f>419.5/1.14</f>
+        <v>367.98245614035091</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="27">
+        <f>1738.2/1</f>
+        <v>1738.2</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="8">
-        <v>325.39999999999998</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="10"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="27">
+        <f>405.1/1.13</f>
+        <v>358.49557522123899</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="27">
+        <f>1734.7/1</f>
+        <v>1734.7</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="17"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="19">
-        <v>1793</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="19">
+      <c r="B22" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="30">
         <v>4484</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="21"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="25">
-        <v>19991.46</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="25">
-        <v>49995.37</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="27"/>
+      <c r="B23" s="36">
+        <f>(19999.15*1000)/($U$1*$U$2)</f>
+        <v>333.31916666666666</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="36">
+        <f>(99995.75*1000)/($U$1*$U$2)</f>
+        <v>1666.5958333333333</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36">
+        <f>1*(99995.75*1000)/($U$1*$U$2)</f>
+        <v>1666.5958333333333</v>
+      </c>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="112">
@@ -1618,6 +1829,948 @@
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="N21:P21"/>
     <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>1000</v>
+      </c>
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>346</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3/($U$1*$U$2)</f>
+        <v>5.7666666666666665E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3*1000</f>
+        <v>5.7666666666666666</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="5">
+        <f>E3/($U$1*$U$2)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <f>F3*1000</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3/($U$1*$U$2)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J3" s="6">
+        <f>I3*1000</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="5">
+        <f>K3/($U$1*$U$2)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M3" s="6">
+        <f>L3*1000</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="5">
+        <f>N3/($U$1*$U$2)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P3" s="6">
+        <f>O3*1000</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>15000</v>
+      </c>
+      <c r="R3" s="5">
+        <f>Q3/($U$1*$U$2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="S3" s="6">
+        <f>R3*1000</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="15">
+        <v>29.7</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="15">
+        <v>82.7</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="15">
+        <v>174.8</v>
+      </c>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="15">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="R4" s="16"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="15">
+        <v>29.2</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="15">
+        <v>75.2</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="15">
+        <v>169.9</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="27">
+        <v>248</v>
+      </c>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15">
+        <v>29.3</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="15">
+        <v>80.2</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="15">
+        <v>161.9</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="15">
+        <v>258.2</v>
+      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15">
+        <v>31.8</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="15">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="15">
+        <v>167.3</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="27">
+        <v>228</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15">
+        <v>26.6</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="15">
+        <v>80.2</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="15">
+        <v>164.2</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="15">
+        <v>243.5</v>
+      </c>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18">
+        <v>29.7</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="18">
+        <v>78.2</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="18">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="15">
+        <v>243.2</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="17"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="30">
+        <v>31</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="30">
+        <v>89</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="30">
+        <v>179</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="30">
+        <v>448</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="30">
+        <v>896</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="30">
+        <v>1345</v>
+      </c>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
+    </row>
+    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="33">
+        <v>4995.08</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="33">
+        <v>9990.15</v>
+      </c>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="33">
+        <v>14996.38</v>
+      </c>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C15" s="5">
+        <f>B15/($U$1*$U$2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D15" s="6">
+        <f>C15*1000</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="E15" s="4">
+        <v>50000</v>
+      </c>
+      <c r="F15" s="5">
+        <f>E15/($U$1*$U$2)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G15" s="6">
+        <f>F15*1000</f>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H15" s="4">
+        <v>100000</v>
+      </c>
+      <c r="I15" s="5">
+        <f>H15/($U$1*$U$2)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J15" s="6">
+        <f>I15*1000</f>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="K15" s="4">
+        <v>150000</v>
+      </c>
+      <c r="L15" s="5">
+        <f>K15/($U$1*$U$2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="M15" s="6">
+        <f>L15*1000</f>
+        <v>2500</v>
+      </c>
+      <c r="N15" s="4">
+        <v>200000</v>
+      </c>
+      <c r="O15" s="5">
+        <f>N15/($U$1*$U$2)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15*1000</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>278744</v>
+      </c>
+      <c r="R15" s="5">
+        <f>Q15/($U$1*$U$2)</f>
+        <v>4.6457333333333333</v>
+      </c>
+      <c r="S15" s="6">
+        <f>R15*1000</f>
+        <v>4645.7333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <v>334.6</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="15">
+        <v>813</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="27">
+        <v>338</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="29"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="15">
+        <v>301.2</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="17"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="15">
+        <v>331.3</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="29"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="15">
+        <v>326.3</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="15">
+        <v>325.39999999999998</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="17"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="30">
+        <v>1793</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="30">
+        <v>4484</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="33">
+        <v>19991.46</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="33">
+        <v>49995.37</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="112">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="B20:D20"/>
@@ -1626,19 +2779,6 @@
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:G16"/>
@@ -1649,6 +2789,11 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
@@ -1663,6 +2808,8 @@
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -1677,7 +2824,9 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -1697,6 +2846,7 @@
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -1706,27 +2856,10 @@
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1740,4 +2873,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -140,6 +140,54 @@
           </rPr>
           <t xml:space="preserve">
 20 gotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+80 gotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+80 gotas</t>
         </r>
       </text>
     </comment>
@@ -578,82 +626,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,39 +1038,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="24" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="24" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +1082,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1171,291 +1219,291 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="22">
         <f>36.2/7.05</f>
         <v>5.1347517730496461</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="27">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="22">
         <f>39/1.16</f>
         <v>33.620689655172413</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="27">
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="22">
         <f>195/1.09</f>
         <v>178.89908256880733</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="17"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="27">
+      <c r="A5" s="35"/>
+      <c r="B5" s="22">
         <f>37.9/7.11</f>
         <v>5.3305203938115326</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="27">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="22">
         <f>38.6/1.17</f>
         <v>32.991452991452995</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="27">
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="22">
         <f>194/1.11</f>
         <v>174.77477477477476</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="24"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="27">
+      <c r="A6" s="35"/>
+      <c r="B6" s="22">
         <f>37/7.03</f>
         <v>5.2631578947368416</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="27">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="22">
         <f>38.2/1.16</f>
         <v>32.931034482758626</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="27">
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="22">
         <f>194.3/1.1</f>
         <v>176.63636363636363</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="27">
+      <c r="A7" s="35"/>
+      <c r="B7" s="22">
         <f>36/6.48</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="27">
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="22">
         <f>38/1.15</f>
         <v>33.04347826086957</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="27">
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="22">
         <f>192.4/1.08</f>
         <v>178.14814814814815</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="27">
+      <c r="A8" s="35"/>
+      <c r="B8" s="22">
         <f>32.8/6.39</f>
         <v>5.1330203442879494</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="27">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22">
         <f>38.1/1.14</f>
         <v>33.421052631578952</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="27">
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="22">
         <f>191.8/1.09</f>
         <v>175.96330275229357</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27">
+      <c r="A9" s="36"/>
+      <c r="B9" s="22">
         <f>35.5/7.25</f>
         <v>4.8965517241379306</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="27">
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="22">
         <f>37.8/1.12</f>
         <v>33.749999999999993</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="27">
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="22">
         <f>191.7/1.1</f>
         <v>174.27272727272725</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="17"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30">
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19">
         <v>89</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="30" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="30">
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="19">
         <v>448</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="30" t="s">
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="30">
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="19">
         <v>1345</v>
       </c>
-      <c r="R10" s="31"/>
-      <c r="S10" s="32"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="13">
         <f>(336.12*1000)/($U$1*$U$2)/2</f>
         <v>2.8010000000000002</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="36">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="13">
         <f>(1995.71*1000)/($U$1*$U$2)</f>
         <v>33.261833333333335</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="36">
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="13">
         <f>(9999.6*1000)/($U$1*$U$2)</f>
         <v>166.66</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="38"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="15"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="24" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="24" t="s">
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24" t="s">
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="24" t="s">
+      <c r="O13" s="32"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="26"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="10" t="s">
         <v>0</v>
       </c>
@@ -1583,258 +1631,324 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="22">
         <f>407.7/1.1</f>
         <v>370.63636363636357</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="27">
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="22">
         <f>1804.7/1.03</f>
         <v>1752.1359223300972</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="17"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="22">
+        <f>1796.1/(31/60)</f>
+        <v>3476.3225806451605</v>
+      </c>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="27">
+      <c r="A17" s="35"/>
+      <c r="B17" s="22">
         <f>401.3/1.09</f>
         <v>368.16513761467888</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="27">
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22">
         <f>1744/1.01</f>
         <v>1726.7326732673266</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="22">
+        <f>1690.7/(29/60)</f>
+        <v>3498</v>
+      </c>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="27">
+      <c r="A18" s="35"/>
+      <c r="B18" s="22">
         <f>413.2/1.12</f>
         <v>368.92857142857139</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="27">
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="22">
         <f>1786/1.02</f>
         <v>1750.9803921568628</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="17"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="22">
+        <f>1838/(31/60)</f>
+        <v>3557.4193548387093</v>
+      </c>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="27">
+      <c r="A19" s="35"/>
+      <c r="B19" s="22">
         <f>406.3/1.11</f>
         <v>366.03603603603602</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="27">
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="22">
         <f>1801.7/1.02</f>
         <v>1766.372549019608</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="29"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="22">
+        <f>1751/(30/60)</f>
+        <v>3502</v>
+      </c>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="27">
+      <c r="A20" s="35"/>
+      <c r="B20" s="22">
         <f>419.5/1.14</f>
         <v>367.98245614035091</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="27">
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="22">
         <f>1738.2/1</f>
         <v>1738.2</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="22">
+        <f>1933.9/(33/60)</f>
+        <v>3516.181818181818</v>
+      </c>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="30"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="27">
+      <c r="A21" s="36"/>
+      <c r="B21" s="22">
         <f>405.1/1.13</f>
         <v>358.49557522123899</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="27">
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="22">
         <f>1734.7/1</f>
         <v>1734.7</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="17"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="22">
+        <f>1697.8/(29/60)</f>
+        <v>3512.6896551724135</v>
+      </c>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="30">
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19">
         <v>4484</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="30" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="30" t="s">
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="31"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="32"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="13">
         <f>(19999.15*1000)/($U$1*$U$2)</f>
         <v>333.31916666666666</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="36">
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="13">
         <f>(99995.75*1000)/($U$1*$U$2)</f>
         <v>1666.5958333333333</v>
       </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36">
-        <f>1*(99995.75*1000)/($U$1*$U$2)</f>
-        <v>1666.5958333333333</v>
-      </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="35"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="13">
+        <f>1*(199991.48*1000)/($U$1*$U$2)</f>
+        <v>3333.1913333333332</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
@@ -1851,78 +1965,30 @@
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1964,39 +2030,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="24" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="24" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -2008,7 +2074,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2145,282 +2211,282 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="15">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="28">
         <v>29.7</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="15">
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="28">
         <v>82.7</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="15">
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="28">
         <v>174.8</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="15">
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="28">
         <v>258.39999999999998</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="17"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="15">
+      <c r="A5" s="35"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="28">
         <v>29.2</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="15">
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="28">
         <v>75.2</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="15">
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="28">
         <v>169.9</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="27">
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="22">
         <v>248</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="24"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15">
+      <c r="A6" s="35"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="28">
         <v>29.3</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="15">
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="28">
         <v>80.2</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="15">
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="28">
         <v>161.9</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="15">
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="28">
         <v>258.2</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15">
+      <c r="A7" s="35"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="28">
         <v>31.8</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15">
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="28">
         <v>75.900000000000006</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="15">
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="28">
         <v>167.3</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="27">
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="22">
         <v>228</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15">
+      <c r="A8" s="35"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="28">
         <v>26.6</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="15">
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="28">
         <v>80.2</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="15">
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="28">
         <v>164.2</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="15">
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="28">
         <v>243.5</v>
       </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18">
+      <c r="A9" s="36"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25">
         <v>29.7</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="18">
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="25">
         <v>78.2</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="18">
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="25">
         <v>161.19999999999999</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="15">
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28">
         <v>243.2</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="17"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="19">
         <v>31</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="30">
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19">
         <v>89</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="30">
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19">
         <v>179</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="30">
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="19">
         <v>448</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="30">
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="19">
         <v>896</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="30">
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="19">
         <v>1345</v>
       </c>
-      <c r="R10" s="31"/>
-      <c r="S10" s="32"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="33">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="16">
         <v>4995.08</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="33">
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="16">
         <v>9990.15</v>
       </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="33">
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="16">
         <v>14996.38</v>
       </c>
-      <c r="R11" s="34"/>
-      <c r="S11" s="35"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="24" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="24" t="s">
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24" t="s">
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="24" t="s">
+      <c r="O13" s="32"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="26"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2548,268 +2614,226 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="28">
         <v>334.6</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="15">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="28">
         <v>813</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="17"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="27">
+      <c r="A17" s="35"/>
+      <c r="B17" s="22">
         <v>338</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="15">
+      <c r="A18" s="35"/>
+      <c r="B18" s="28">
         <v>301.2</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="17"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="15">
+      <c r="A19" s="35"/>
+      <c r="B19" s="28">
         <v>331.3</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="15">
+      <c r="A20" s="35"/>
+      <c r="B20" s="28">
         <v>326.3</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="30"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="15">
+      <c r="A21" s="36"/>
+      <c r="B21" s="28">
         <v>325.39999999999998</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="17"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="19">
         <v>1793</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="30">
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19">
         <v>4484</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="32"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="16">
         <v>19991.46</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="33">
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="16">
         <v>49995.37</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="35"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -2834,29 +2858,71 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Rate" sheetId="5" r:id="rId1"/>
-    <sheet name="3mL Bomba 2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="3mL Bomba 1" sheetId="7" r:id="rId2"/>
+    <sheet name="3mL Bomba 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -101,10 +103,59 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Lisbeth</author>
     <author>NANOMEDICINA</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="X1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+flujo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+frecuencia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -128,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -153,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="N4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -177,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -201,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -225,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0">
+    <comment ref="H16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -249,7 +300,259 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="0">
+    <comment ref="N16" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+80 gotas</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Lisbeth</author>
+    <author>NANOMEDICINA</author>
+  </authors>
+  <commentList>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Flujo (mg/min)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Frecuencia (Hz)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2 gotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2 gotas
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10 gotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+mg/min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+experimental/teorico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20 gotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+80 gotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -278,7 +581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>uL/h</t>
   </si>
@@ -331,9 +634,6 @@
     <t>Flujo exp eq (mg/min)</t>
   </si>
   <si>
-    <t>190/179</t>
-  </si>
-  <si>
     <t>32/31</t>
   </si>
   <si>
@@ -464,6 +764,27 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>1904/1904</t>
+  </si>
+  <si>
+    <t>Ecuación</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -517,7 +838,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1050,11 +1371,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1080,42 +1438,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,39 +1446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1261,28 +1550,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1293,7 +1577,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,6 +1762,267 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.1347500000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3305199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5555599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1330200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8965500000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.620690000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.99145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.93103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.043480000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.421050000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="88457216"/>
+        <c:axId val="118850688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88457216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118850688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="118850688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88457216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4110" name="Object 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4110"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1720,8 +2352,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,442 +2375,436 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="N1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="43" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="21">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="46">
+      <c r="B2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="23">
         <v>48.04</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="24">
         <f>C2*1000</f>
         <v>48040</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="23">
         <f>Tabla2[[#This Row],[Volumen (uL)]]/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="25">
         <v>8</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="26">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$2/$D$2)</f>
         <v>1.5214779956596616E-5</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="27">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$2/$D$2)</f>
         <v>1.2269983835965012E-2</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="28">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$2/$D$2)</f>
         <v>0.91288679739579726</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="29">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$2/$D$2)</f>
         <v>736.19903015790089</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="30">
         <f t="shared" ref="K2:L6" si="0">G2*1000000</f>
         <v>15.214779956596617</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="30">
         <f t="shared" si="0"/>
         <v>12269.983835965013</v>
       </c>
-      <c r="M2" s="54">
+      <c r="M2" s="31">
         <v>31</v>
       </c>
-      <c r="N2" s="55">
+      <c r="N2" s="32">
         <v>25000</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="56">
+      <c r="B3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="33">
         <v>28.1</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="24">
         <f>C3*1000</f>
         <v>28100</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="24">
         <v>0.5</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="34">
         <f>E3*1000</f>
         <v>500</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="26">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$3/$D$3)</f>
         <v>1.6257073601310087E-3</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="27">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$3/$D$3)</f>
         <v>1.3110543226862972</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="30">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$3/$D$3)</f>
         <v>97.542441607860539</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="29">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$3/$D$3)</f>
         <v>78663.259361177857</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="30">
         <f t="shared" si="0"/>
         <v>1625.7073601310087</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="30">
         <f t="shared" si="0"/>
         <v>1311054.3226862971</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="59" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
-        <v>3</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="47">
+      <c r="C4" s="24">
         <v>15.86</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="24">
         <f>C4*1000</f>
         <v>15860</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="24">
         <v>1</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="34">
         <f>E4*1000</f>
         <v>1000</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="26">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$4/$D$4)</f>
         <v>5.7607032559497283E-3</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="27">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$4/$D$4)</f>
         <v>4.6457284322175223</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="30">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$4/$D$4)</f>
         <v>345.64219535698373</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="29">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$4/$D$4)</f>
         <v>278743.70593305142</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="30">
         <f>G4*1000000</f>
         <v>5760.7032559497284</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="30">
         <f>H4*1000000</f>
         <v>4645728.4322175225</v>
       </c>
-      <c r="M4" s="54">
+      <c r="M4" s="31">
         <v>200</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="39">
         <v>50.8949</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="63">
+      <c r="A5" s="40">
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="64">
+        <v>41</v>
+      </c>
+      <c r="C5" s="41">
         <v>16.34</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="24">
         <f>C5*1000</f>
         <v>16340</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="41">
         <v>2</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="34">
         <f>E5*1000</f>
         <v>2000</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="26">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$5/$D$5)</f>
         <v>1.1182956381806939E-2</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="27">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$5/$D$5)</f>
         <v>9.0185132111346267</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="30">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$5/$D$5)</f>
         <v>670.97738290841642</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="29">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$5/$D$5)</f>
         <v>541110.79266807775</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="30">
         <f t="shared" si="0"/>
         <v>11182.95638180694</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>9018513.2111346275</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="66" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67">
+      <c r="A6" s="44">
         <v>12</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="69">
+      <c r="B6" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="46">
         <v>30.54</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="47">
         <f>C6*1000</f>
         <v>30540</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="46">
         <v>6</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="48">
         <f>E6*1000</f>
         <v>6000</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="26">
         <f>($M$2/$M$6)*(60/1)*(1000/1)*($E$6/$D$6)</f>
         <v>1.7949853367261823E-2</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="27">
         <f>($N$2/$M$6)*(60/1)*(1000/1)*($E$6/$D$6)</f>
         <v>14.475688199404695</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="30">
         <f>($M$2/$M$6)*(1000/1)*(3600/1)*($F$6/$D$6)</f>
         <v>1076.9912020357094</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="29">
         <f>($N$2/$M$6)*(1000/1)*(3600/1)*($F$6/$D$6)</f>
         <v>868541.29196428182</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="30">
         <f t="shared" si="0"/>
         <v>17949.853367261825</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="30">
         <f t="shared" si="0"/>
         <v>14475688.199404696</v>
       </c>
-      <c r="M6" s="72">
+      <c r="M6" s="49">
         <f>(N7*M4*N4)/N6</f>
         <v>20357.96</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="50">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M7" s="74" t="s">
+      <c r="M7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="75">
+      <c r="B8" s="59"/>
+      <c r="C8" s="53">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="D8" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78">
-        <v>16</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="59"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="80"/>
+      <c r="I8" s="67"/>
       <c r="J8">
         <v>25</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="67"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="54">
+        <v>200</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="80"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="81">
-        <v>200</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="61"/>
       <c r="F9">
         <f>F8*B8</f>
         <v>0</v>
       </c>
       <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="84">
+      <c r="I9" s="67"/>
+      <c r="J9" s="55">
         <f>C10*J8</f>
         <v>1272.3724999999999</v>
       </c>
-      <c r="K9" s="80" t="s">
+      <c r="K9" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="67"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="80"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="54">
+        <v>50.8949</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="81">
-        <v>50.8949</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="83"/>
-      <c r="J10" s="84">
+      <c r="E10" s="61"/>
+      <c r="J10" s="55">
         <f>J9*C9*C8/60</f>
         <v>67859.866666666669</v>
       </c>
-      <c r="K10" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="85"/>
+      <c r="K10" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="54">
+        <v>8</v>
+      </c>
+      <c r="D11" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="81">
-        <v>8</v>
-      </c>
-      <c r="D11" s="86" t="s">
+      <c r="E11" s="63"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="87"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90">
+      <c r="B12" s="65"/>
+      <c r="C12" s="57">
         <f>C8*C9*C10/C11</f>
         <v>20357.96</v>
       </c>
-      <c r="D12" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="83"/>
+      <c r="D12" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="61"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
@@ -2187,6 +2813,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
@@ -2199,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,42 +2861,47 @@
     <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="29" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="29" t="s">
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="29" t="s">
+      <c r="O1" s="69"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="31"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="70"/>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -2274,61 +2911,76 @@
       <c r="V1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="7" t="s">
+      <c r="W1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="81"/>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T2" t="s">
@@ -2341,7 +2993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2412,348 +3064,273 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20">
-        <f>36.2/7.05</f>
-        <v>5.1347517730496461</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="20">
-        <f>39/1.16</f>
-        <v>33.620689655172413</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="20">
-        <f>195/1.09</f>
-        <v>178.89908256880733</v>
-      </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="25"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="20">
-        <f>37.9/7.11</f>
-        <v>5.3305203938115326</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="20">
-        <f>38.6/1.17</f>
-        <v>32.991452991452995</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="20">
-        <f>194/1.11</f>
-        <v>174.77477477477476</v>
-      </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="22"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="20">
-        <f>37/7.03</f>
-        <v>5.2631578947368416</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="20">
-        <f>38.2/1.16</f>
-        <v>32.931034482758626</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="20">
-        <f>194.3/1.1</f>
-        <v>176.63636363636363</v>
-      </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="25"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="20">
-        <f>36/6.48</f>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="20">
-        <f>38/1.15</f>
-        <v>33.04347826086957</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="20">
-        <f>192.4/1.08</f>
-        <v>178.14814814814815</v>
-      </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="20">
-        <f>32.8/6.39</f>
-        <v>5.1330203442879494</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="20">
-        <f>38.1/1.14</f>
-        <v>33.421052631578952</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="20">
-        <f>191.8/1.09</f>
-        <v>175.96330275229357</v>
-      </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="25"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="20">
-        <f>35.5/7.25</f>
-        <v>4.8965517241379306</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="20">
-        <f>37.8/1.12</f>
-        <v>33.749999999999993</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="20">
-        <f>191.7/1.1</f>
-        <v>174.27272727272725</v>
-      </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="79"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="79"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="76"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="79"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="79"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17">
-        <v>89</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="17">
-        <v>448</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="17">
-        <v>1345</v>
-      </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="19"/>
-    </row>
-    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="90"/>
+    </row>
+    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11">
-        <f>(336.12*1000)/($U$1*$U$2)/2</f>
-        <v>2.8010000000000002</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11">
-        <f>(1995.71*1000)/($U$1*$U$2)</f>
-        <v>33.261833333333335</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="11">
-        <f>(9999.6*1000)/($U$1*$U$2)</f>
-        <v>166.66</v>
-      </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="87"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="29" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="29" t="s">
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="29" t="s">
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="29" t="s">
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="29" t="s">
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="7" t="s">
+      <c r="R13" s="69"/>
+      <c r="S13" s="70"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2824,253 +3401,278 @@
         <v>4645.7333333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="20">
-        <f>407.7/1.1</f>
-        <v>370.63636363636357</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20">
-        <f>1804.7/1.03</f>
-        <v>1752.1359223300972</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="20">
-        <f>1796.1/(31/60)</f>
-        <v>3476.3225806451605</v>
-      </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="79"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="20">
-        <f>401.3/1.09</f>
-        <v>368.16513761467888</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <f>1744/1.01</f>
-        <v>1726.7326732673266</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="20">
-        <f>1690.7/(29/60)</f>
-        <v>3498</v>
-      </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="22"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="76"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="20">
-        <f>413.2/1.12</f>
-        <v>368.92857142857139</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="20">
-        <f>1786/1.02</f>
-        <v>1750.9803921568628</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="20">
-        <f>1838/(31/60)</f>
-        <v>3557.4193548387093</v>
-      </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="79"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="20">
-        <f>406.3/1.11</f>
-        <v>366.03603603603602</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20">
-        <f>1801.7/1.02</f>
-        <v>1766.372549019608</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="20">
-        <f>1751/(30/60)</f>
-        <v>3502</v>
-      </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="22"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="76"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="20">
-        <f>419.5/1.14</f>
-        <v>367.98245614035091</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="20">
-        <f>1738.2/1</f>
-        <v>1738.2</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="20">
-        <f>1933.9/(33/60)</f>
-        <v>3516.181818181818</v>
-      </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="25"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="79"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="20">
-        <f>405.1/1.13</f>
-        <v>358.49557522123899</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="20">
-        <f>1734.7/1</f>
-        <v>1734.7</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="20">
-        <f>1697.8/(29/60)</f>
-        <v>3512.6896551724135</v>
-      </c>
-      <c r="O21" s="21"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="25"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="79"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="17">
-        <v>4484</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="18"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="19"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="90"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11">
-        <f>(19999.15*1000)/($U$1*$U$2)</f>
-        <v>333.31916666666666</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="11">
-        <f>(99995.75*1000)/($U$1*$U$2)</f>
-        <v>1666.5958333333333</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="11">
-        <f>1*(199991.48*1000)/($U$1*$U$2)</f>
-        <v>3333.1913333333332</v>
-      </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="16"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:D4"/>
@@ -3087,116 +3689,1159 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q13:S13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="95">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="V1" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="96">
+        <v>2.2850000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="81"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>346</v>
+      </c>
+      <c r="C3" s="2">
+        <f>B3/($O$1*$O$2)</f>
+        <v>5.7666666666666665E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3*1000</f>
+        <v>5.7666666666666666</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3/($O$1*$O$2)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>F3*1000</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3/($O$1*$O$2)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3*1000</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15000</v>
+      </c>
+      <c r="L3" s="2">
+        <f>K3/($O$1*$O$2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="3">
+        <f>L3*1000</f>
+        <v>250</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="74">
+        <f>36.2/7.05</f>
+        <v>5.1347517730496461</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="74">
+        <f>39/1.16</f>
+        <v>33.620689655172413</v>
+      </c>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="74">
+        <f>195/1.09</f>
+        <v>178.89908256880733</v>
+      </c>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
+      <c r="R4">
+        <v>31</v>
+      </c>
+      <c r="S4" s="97">
+        <v>5.2189300000000003</v>
+      </c>
+      <c r="T4" s="97">
+        <v>0.22186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="74">
+        <f>37.9/7.11</f>
+        <v>5.3305203938115326</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="74">
+        <f>38.6/1.17</f>
+        <v>32.991452991452995</v>
+      </c>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="74">
+        <f>194/1.11</f>
+        <v>174.77477477477476</v>
+      </c>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
+      <c r="R5">
+        <v>190</v>
+      </c>
+      <c r="S5" s="97">
+        <v>33.292949999999998</v>
+      </c>
+      <c r="T5" s="97">
+        <v>0.35124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="74">
+        <f>37/7.03</f>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="74">
+        <f>38.2/1.16</f>
+        <v>32.931034482758626</v>
+      </c>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="74">
+        <f>194.3/1.1</f>
+        <v>176.63636363636363</v>
+      </c>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6">
+        <v>952</v>
+      </c>
+      <c r="S6" s="97">
+        <v>176.44907000000001</v>
+      </c>
+      <c r="T6" s="97">
+        <v>1.82758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="74">
+        <f>36/6.48</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="74">
+        <f>38/1.15</f>
+        <v>33.04347826086957</v>
+      </c>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="74">
+        <f>192.4/1.08</f>
+        <v>178.14814814814815</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="76"/>
+      <c r="O7" s="97">
+        <f>(P7-X1)/U1</f>
+        <v>16283.079847908744</v>
+      </c>
+      <c r="P7">
+        <v>3000</v>
+      </c>
+      <c r="R7">
+        <v>1904</v>
+      </c>
+      <c r="S7" s="97">
+        <v>366.70735999999999</v>
+      </c>
+      <c r="T7" s="97">
+        <v>4.2896599999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="74">
+        <f>32.8/6.39</f>
+        <v>5.1330203442879494</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="74">
+        <f>38.1/1.14</f>
+        <v>33.421052631578952</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="74">
+        <f>191.8/1.09</f>
+        <v>175.96330275229357</v>
+      </c>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
+      <c r="R8">
+        <v>9520</v>
+      </c>
+      <c r="S8" s="97">
+        <v>1744.8535899999999</v>
+      </c>
+      <c r="T8" s="97">
+        <v>14.3483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74">
+        <f>35.5/7.25</f>
+        <v>4.8965517241379306</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="74">
+        <f>37.8/1.12</f>
+        <v>33.749999999999993</v>
+      </c>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="74">
+        <f>191.7/1.1</f>
+        <v>174.27272727272725</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
+      <c r="R9">
+        <v>19040</v>
+      </c>
+      <c r="S9" s="97">
+        <v>3510.4355700000001</v>
+      </c>
+      <c r="T9" s="97">
+        <v>26.96321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="88">
+        <v>1345</v>
+      </c>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+    </row>
+    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="85">
+        <f>(336.12*1000)/($O$1*$O$2)/2</f>
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="85">
+        <f>(1995.71*1000)/($O$1*$O$2)</f>
+        <v>33.261833333333335</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="85">
+        <f>(9999.6*1000)/($O$1*$O$2)</f>
+        <v>166.66</v>
+      </c>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C15" s="2">
+        <f>B15/($O$1*$O$2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15*1000</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="2">
+        <f>E15/($O$1*$O$2)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G15" s="3">
+        <f>F15*1000</f>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="H15" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I15" s="2">
+        <f>H15/($O$1*$O$2)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J15" s="3">
+        <f>I15*1000</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="K15" s="1">
+        <v>278744</v>
+      </c>
+      <c r="L15" s="2">
+        <f>K15/($O$1*$O$2)</f>
+        <v>4.6457333333333333</v>
+      </c>
+      <c r="M15" s="3">
+        <f>L15*1000</f>
+        <v>4645.7333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="74">
+        <f>407.7/1.1</f>
+        <v>370.63636363636357</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="74">
+        <f>1804.7/1.03</f>
+        <v>1752.1359223300972</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="74">
+        <f>1796.1/(31/60)</f>
+        <v>3476.3225806451605</v>
+      </c>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="74">
+        <f>401.3/1.09</f>
+        <v>368.16513761467888</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="74">
+        <f>1744/1.01</f>
+        <v>1726.7326732673266</v>
+      </c>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="74">
+        <f>1690.7/(29/60)</f>
+        <v>3498</v>
+      </c>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="76"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="74">
+        <f>413.2/1.12</f>
+        <v>368.92857142857139</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="74">
+        <f>1786/1.02</f>
+        <v>1750.9803921568628</v>
+      </c>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="74">
+        <f>1838/(31/60)</f>
+        <v>3557.4193548387093</v>
+      </c>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="74">
+        <f>406.3/1.11</f>
+        <v>366.03603603603602</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="74">
+        <f>1801.7/1.02</f>
+        <v>1766.372549019608</v>
+      </c>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="74">
+        <f>1751/(30/60)</f>
+        <v>3502</v>
+      </c>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="74">
+        <f>419.5/1.14</f>
+        <v>367.98245614035091</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="74">
+        <f>1738.2/1</f>
+        <v>1738.2</v>
+      </c>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="74">
+        <f>1933.9/(33/60)</f>
+        <v>3516.181818181818</v>
+      </c>
+      <c r="I20" s="75"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="74">
+        <f>405.1/1.13</f>
+        <v>358.49557522123899</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="74">
+        <f>1734.7/1</f>
+        <v>1734.7</v>
+      </c>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="74">
+        <f>1697.8/(29/60)</f>
+        <v>3512.6896551724135</v>
+      </c>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="85">
+        <f>(19999.15*1000)/($O$1*$O$2)</f>
+        <v>333.31916666666666</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="85">
+        <f>(99995.75*1000)/($O$1*$O$2)</f>
+        <v>1666.5958333333333</v>
+      </c>
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="85">
+        <f>1*(199991.48*1000)/($O$1*$O$2)</f>
+        <v>3333.1913333333332</v>
+      </c>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Prism5.Document" shapeId="4110" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Prism5.Document" shapeId="4110" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>5.2189300000000003</v>
+      </c>
+      <c r="C1">
+        <v>0.22186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>33.292949999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.35124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>176.44907000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.82758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>366.70735999999999</v>
+      </c>
+      <c r="C4">
+        <v>4.2896599999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1744.8535899999999</v>
+      </c>
+      <c r="C5">
+        <v>14.3483</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>5.1347500000000004</v>
+      </c>
+      <c r="C1">
+        <v>33.620690000000003</v>
+      </c>
+      <c r="D1">
+        <v>178.89908</v>
+      </c>
+      <c r="E1">
+        <v>370.63636000000002</v>
+      </c>
+      <c r="F1">
+        <v>1752.1359199999999</v>
+      </c>
+      <c r="G1">
+        <v>3476.32258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5.3305199999999999</v>
+      </c>
+      <c r="C2">
+        <v>32.99145</v>
+      </c>
+      <c r="D2">
+        <v>174.77476999999999</v>
+      </c>
+      <c r="E2">
+        <v>368.16514000000001</v>
+      </c>
+      <c r="F2">
+        <v>1726.7326700000001</v>
+      </c>
+      <c r="G2">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5.2631600000000001</v>
+      </c>
+      <c r="C3">
+        <v>32.93103</v>
+      </c>
+      <c r="D3">
+        <v>176.63636</v>
+      </c>
+      <c r="E3">
+        <v>368.92856999999998</v>
+      </c>
+      <c r="F3">
+        <v>1750.9803899999999</v>
+      </c>
+      <c r="G3">
+        <v>3557.4193500000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>5.5555599999999998</v>
+      </c>
+      <c r="C4">
+        <v>33.043480000000002</v>
+      </c>
+      <c r="D4">
+        <v>178.14814999999999</v>
+      </c>
+      <c r="E4">
+        <v>366.03604000000001</v>
+      </c>
+      <c r="F4">
+        <v>1766.37255</v>
+      </c>
+      <c r="G4">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5.1330200000000001</v>
+      </c>
+      <c r="C5">
+        <v>33.421050000000001</v>
+      </c>
+      <c r="D5">
+        <v>175.9633</v>
+      </c>
+      <c r="E5">
+        <v>367.98246</v>
+      </c>
+      <c r="F5">
+        <v>1738.2</v>
+      </c>
+      <c r="G5">
+        <v>3516.1818199999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4.8965500000000004</v>
+      </c>
+      <c r="C6">
+        <v>33.75</v>
+      </c>
+      <c r="D6">
+        <v>174.27273</v>
+      </c>
+      <c r="E6">
+        <v>358.49558000000002</v>
+      </c>
+      <c r="F6">
+        <v>1734.7</v>
+      </c>
+      <c r="G6">
+        <v>3512.68966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>33.620690000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>32.99145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>32.93103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>33.043480000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>33.421050000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>33.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -331,59 +331,11 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>NANOMEDICINA</author>
     <author>Lisbeth</author>
-    <author>NANOMEDICINA</author>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Lisbeth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Flujo (mg/min)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Lisbeth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Frecuencia (Hz)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="1">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="O5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -480,7 +432,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="1">
+    <comment ref="O8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Flujo (mg/min)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Frecuencia (Hz)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1">
+    <comment ref="E16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="1">
+    <comment ref="H16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -576,12 +576,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="B34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Flujo (mg/min)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Frecuencia (Hz)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
   <si>
     <t>uL/h</t>
   </si>
@@ -640,15 +688,6 @@
     <t>952/896</t>
   </si>
   <si>
-    <t>1904/1793</t>
-  </si>
-  <si>
-    <t>9520/</t>
-  </si>
-  <si>
-    <t>19040/</t>
-  </si>
-  <si>
     <t>Volumen Jeringa (mL)</t>
   </si>
   <si>
@@ -766,9 +805,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>1904/1904</t>
-  </si>
-  <si>
     <t>Ecuación</t>
   </si>
   <si>
@@ -785,6 +821,67 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Frecuencia (Hz)</t>
+  </si>
+  <si>
+    <t>/25000</t>
+  </si>
+  <si>
+    <t>Caudal (mg/min)</t>
+  </si>
+  <si>
+    <t>190/179</t>
+  </si>
+  <si>
+    <t>Frecuencia teórica (Hz)</t>
+  </si>
+  <si>
+    <t>Calibración experimental</t>
+  </si>
+  <si>
+    <t>Bomba 1</t>
+  </si>
+  <si>
+    <t>Bomba 2</t>
+  </si>
+  <si>
+    <t>(pulsos/mm)</t>
+  </si>
+  <si>
+    <t>1904/1792</t>
+  </si>
+  <si>
+    <t>9520/8960</t>
+  </si>
+  <si>
+    <t>19040/17919</t>
+  </si>
+  <si>
+    <t>/1344</t>
+  </si>
+  <si>
+    <t>Caudal teórico (mg/min)</t>
   </si>
 </sst>
 </file>
@@ -796,7 +893,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +913,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1412,7 +1517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1557,10 +1662,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1577,11 +1692,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1601,70 +1764,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1892,11 +2033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88457216"/>
-        <c:axId val="118850688"/>
+        <c:axId val="92932928"/>
+        <c:axId val="92933504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88457216"/>
+        <c:axId val="92932928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,12 +2047,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118850688"/>
+        <c:crossAx val="92933504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118850688"/>
+        <c:axId val="92933504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,14 +2063,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88457216"/>
+        <c:crossAx val="92932928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1950,23 +2090,64 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>69799</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>295273</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>57147</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4110" name="Object 14" hidden="1">
+            <xdr:cNvPr id="4120" name="Object 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4110"/>
+                  <a14:compatExt spid="_x0000_s4120"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>88838</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>411521</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>19051</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4121" name="Object 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4121"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2353,12 +2534,12 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -2376,46 +2557,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="M1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2424,7 +2605,7 @@
         <v>0.01</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="23">
         <v>48.04</v>
@@ -2476,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="33">
         <v>28.1</v>
@@ -2517,10 +2698,10 @@
         <v>1311054.3226862971</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2528,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="24">
         <v>15.86</v>
@@ -2580,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="41">
         <v>16.34</v>
@@ -2621,10 +2802,10 @@
         <v>9018513.2111346275</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2632,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="46">
         <v>30.54</v>
@@ -2682,129 +2863,157 @@
     </row>
     <row r="7" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M7" s="51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N7" s="52">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="59"/>
+      <c r="A8" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="63"/>
       <c r="C8" s="53">
         <v>16</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="59"/>
+      <c r="D8" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="63"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="67"/>
+        <v>44</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="65"/>
       <c r="J8">
         <v>25</v>
       </c>
-      <c r="K8" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="67"/>
+      <c r="K8" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="59"/>
+      <c r="A9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="63"/>
       <c r="C9" s="54">
         <v>200</v>
       </c>
-      <c r="D9" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="61"/>
+      <c r="D9" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="67"/>
       <c r="F9">
         <f>F8*B8</f>
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="67"/>
+        <v>48</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="65"/>
       <c r="J9" s="55">
         <f>C10*J8</f>
         <v>1272.3724999999999</v>
       </c>
-      <c r="K9" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="67"/>
+      <c r="K9" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="59"/>
+      <c r="A10" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="63"/>
       <c r="C10" s="54">
         <v>50.8949</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="61"/>
+      <c r="D10" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="67"/>
       <c r="J10" s="55">
         <f>J9*C9*C8/60</f>
         <v>67859.866666666669</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="59"/>
+      <c r="A11" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="63"/>
       <c r="C11" s="54">
         <v>8</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="63"/>
+      <c r="D11" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="65"/>
+      <c r="A12" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="71"/>
       <c r="C12" s="57">
         <f>C8*C9*C10/C11</f>
         <v>20357.96</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="61"/>
+      <c r="D12" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="67"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>20381</v>
+      </c>
+      <c r="C16">
+        <v>21610</v>
+      </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
@@ -2813,12 +3022,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
@@ -2869,39 +3072,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="68" t="s">
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="68" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="68" t="s">
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="68" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="69"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="68" t="s">
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="70"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="92"/>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -2912,23 +3115,23 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
-      <c r="X1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
+      <c r="A2" s="97"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3065,216 +3268,216 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="79"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="89"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="79"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="89"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="76"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="83"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="79"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="89"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="79"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="89"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="90"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
     </row>
     <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="87"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="74"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="68" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="68" t="s">
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="68" t="s">
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="68" t="s">
+      <c r="L13" s="91"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="69"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="68" t="s">
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="69"/>
-      <c r="S13" s="70"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="92"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
@@ -3402,205 +3605,253 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="79"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="89"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="76"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="83"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="79"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="89"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="76"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="83"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="79"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="89"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="79"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="89"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="80"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="93"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
@@ -3617,78 +3868,30 @@
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3698,16 +3901,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
@@ -3720,74 +3923,62 @@
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="68" t="s">
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="68" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="68" t="s">
+      <c r="I1" s="105"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="70"/>
-      <c r="N1" t="s">
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="107">
         <v>60</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" s="95">
-        <v>0.18410000000000001</v>
-      </c>
-      <c r="V1" s="95" t="s">
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="96">
-        <v>2.2850000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="97"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3833,8 +4024,17 @@
       <c r="P2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>31</v>
+      </c>
+      <c r="S2" s="61">
+        <v>5.2189300000000003</v>
+      </c>
+      <c r="T2" s="61">
+        <v>0.22186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3882,304 +4082,319 @@
         <f>L3*1000</f>
         <v>250</v>
       </c>
-      <c r="R3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="R3">
+        <v>190</v>
+      </c>
+      <c r="S3" s="61">
+        <v>33.292949999999998</v>
+      </c>
+      <c r="T3" s="61">
+        <v>0.35124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="81">
         <f>36.2/7.05</f>
         <v>5.1347517730496461</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="74">
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="81">
         <f>39/1.16</f>
         <v>33.620689655172413</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="74">
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="81">
         <f>195/1.09</f>
         <v>178.89908256880733</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="103" t="s">
+        <v>59</v>
+      </c>
       <c r="R4">
-        <v>31</v>
-      </c>
-      <c r="S4" s="97">
-        <v>5.2189300000000003</v>
-      </c>
-      <c r="T4" s="97">
-        <v>0.22186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="74">
+        <v>952</v>
+      </c>
+      <c r="S4" s="61">
+        <v>176.44907000000001</v>
+      </c>
+      <c r="T4" s="61">
+        <v>1.82758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="94"/>
+      <c r="B5" s="81">
         <f>37.9/7.11</f>
         <v>5.3305203938115326</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="74">
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="81">
         <f>38.6/1.17</f>
         <v>32.991452991452995</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="74">
+      <c r="F5" s="82"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="81">
         <f>194/1.11</f>
         <v>174.77477477477476</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="102">
+        <f>(O5-T8)/Q8</f>
+        <v>16283.340575774035</v>
+      </c>
+      <c r="O5" s="101">
+        <v>3000</v>
+      </c>
       <c r="R5">
-        <v>190</v>
-      </c>
-      <c r="S5" s="97">
-        <v>33.292949999999998</v>
-      </c>
-      <c r="T5" s="97">
-        <v>0.35124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="74">
+        <v>1904</v>
+      </c>
+      <c r="S5" s="61">
+        <v>366.70735999999999</v>
+      </c>
+      <c r="T5" s="61">
+        <v>4.2896599999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="94"/>
+      <c r="B6" s="81">
         <f>37/7.03</f>
         <v>5.2631578947368416</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="74">
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="81">
         <f>38.2/1.16</f>
         <v>32.931034482758626</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="74">
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="81">
         <f>194.3/1.1</f>
         <v>176.63636363636363</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
-      <c r="O6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" t="s">
-        <v>63</v>
-      </c>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89"/>
       <c r="R6">
-        <v>952</v>
-      </c>
-      <c r="S6" s="97">
-        <v>176.44907000000001</v>
-      </c>
-      <c r="T6" s="97">
-        <v>1.82758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="74">
+        <v>9520</v>
+      </c>
+      <c r="S6" s="61">
+        <v>1744.8535899999999</v>
+      </c>
+      <c r="T6" s="61">
+        <v>14.3483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="94"/>
+      <c r="B7" s="81">
         <f>36/6.48</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="74">
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="81">
         <f>38/1.15</f>
         <v>33.04347826086957</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="74">
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="81">
         <f>192.4/1.08</f>
         <v>178.14814814814815</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
-      <c r="O7" s="97">
-        <f>(P7-X1)/U1</f>
-        <v>16283.079847908744</v>
-      </c>
-      <c r="P7">
-        <v>3000</v>
-      </c>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
       <c r="R7">
-        <v>1904</v>
-      </c>
-      <c r="S7" s="97">
-        <v>366.70735999999999</v>
-      </c>
-      <c r="T7" s="97">
-        <v>4.2896599999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="74">
+        <v>19040</v>
+      </c>
+      <c r="S7" s="61">
+        <v>3510.4355700000001</v>
+      </c>
+      <c r="T7" s="61">
+        <v>26.96321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="94"/>
+      <c r="B8" s="81">
         <f>32.8/6.39</f>
         <v>5.1330203442879494</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="74">
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="81">
         <f>38.1/1.14</f>
         <v>33.421052631578952</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="74">
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="81">
         <f>191.8/1.09</f>
         <v>175.96330275229357</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="R8">
-        <v>9520</v>
-      </c>
-      <c r="S8" s="97">
-        <v>1744.8535899999999</v>
-      </c>
-      <c r="T8" s="97">
-        <v>14.3483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74">
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="R8" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="60">
+        <v>2.2370000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="95"/>
+      <c r="B9" s="81">
         <f>35.5/7.25</f>
         <v>4.8965517241379306</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="74">
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="81">
         <f>37.8/1.12</f>
         <v>33.749999999999993</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="74">
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="81">
         <f>191.7/1.1</f>
         <v>174.27272727272725</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
-      <c r="R9">
-        <v>19040</v>
-      </c>
-      <c r="S9" s="97">
-        <v>3510.4355700000001</v>
-      </c>
-      <c r="T9" s="97">
-        <v>26.96321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
+      <c r="O9" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="88" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="88">
-        <v>1345</v>
-      </c>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
-    </row>
-    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
+    </row>
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="72">
         <f>(336.12*1000)/($O$1*$O$2)/2</f>
         <v>2.8010000000000002</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="85">
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="72">
         <f>(1995.71*1000)/($O$1*$O$2)</f>
         <v>33.261833333333335</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="85">
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="72">
         <f>(9999.6*1000)/($O$1*$O$2)</f>
         <v>166.66</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="68" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="68" t="s">
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="68" t="s">
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="92"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4217,7 +4432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4266,225 +4481,372 @@
         <v>4645.7333333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="74">
+      <c r="B16" s="81">
         <f>407.7/1.1</f>
         <v>370.63636363636357</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="74">
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="81">
         <f>1804.7/1.03</f>
         <v>1752.1359223300972</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="74">
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="81">
         <f>1796.1/(31/60)</f>
         <v>3476.3225806451605</v>
       </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74">
+      <c r="A17" s="94"/>
+      <c r="B17" s="81">
         <f>401.3/1.09</f>
         <v>368.16513761467888</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="74">
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="81">
         <f>1744/1.01</f>
         <v>1726.7326732673266</v>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="74">
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="81">
         <f>1690.7/(29/60)</f>
         <v>3498</v>
       </c>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="74">
+      <c r="A18" s="94"/>
+      <c r="B18" s="81">
         <f>413.2/1.12</f>
         <v>368.92857142857139</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="74">
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="81">
         <f>1786/1.02</f>
         <v>1750.9803921568628</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="74">
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="81">
         <f>1838/(31/60)</f>
         <v>3557.4193548387093</v>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="74">
+      <c r="A19" s="94"/>
+      <c r="B19" s="81">
         <f>406.3/1.11</f>
         <v>366.03603603603602</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="74">
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="81">
         <f>1801.7/1.02</f>
         <v>1766.372549019608</v>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="74">
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="81">
         <f>1751/(30/60)</f>
         <v>3502</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="76"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="74">
+      <c r="A20" s="94"/>
+      <c r="B20" s="81">
         <f>419.5/1.14</f>
         <v>367.98245614035091</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="74">
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="81">
         <f>1738.2/1</f>
         <v>1738.2</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="74">
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="81">
         <f>1933.9/(33/60)</f>
         <v>3516.181818181818</v>
       </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74">
+      <c r="A21" s="95"/>
+      <c r="B21" s="81">
         <f>405.1/1.13</f>
         <v>358.49557522123899</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="74">
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="81">
         <f>1734.7/1</f>
         <v>1734.7</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="74">
+      <c r="F21" s="82"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="81">
         <f>1697.8/(29/60)</f>
         <v>3512.6896551724135</v>
       </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
+      <c r="B22" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="85">
+      <c r="B23" s="72">
         <f>(19999.15*1000)/($O$1*$O$2)</f>
         <v>333.31916666666666</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="85">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="72">
         <f>(99995.75*1000)/($O$1*$O$2)</f>
         <v>1666.5958333333333</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="85">
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="72">
         <f>1*(199991.48*1000)/($O$1*$O$2)</f>
         <v>3333.1913333333332</v>
       </c>
-      <c r="I23" s="86"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="93"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="77"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+    </row>
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26" s="61">
+        <v>5.7666666666666666</v>
+      </c>
+      <c r="J26" s="55"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="55">
+        <f>(A26*B27)/B26</f>
+        <v>179.19075144508673</v>
+      </c>
+      <c r="B27" s="61">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="J27" s="55"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="55">
+        <f t="shared" ref="A28:A32" si="0">(A27*B28)/B27</f>
+        <v>895.95375722543361</v>
+      </c>
+      <c r="B28" s="61">
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="55">
+        <f t="shared" si="0"/>
+        <v>1343.9306358381505</v>
+      </c>
+      <c r="B29" s="61">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="55">
+        <f t="shared" si="0"/>
+        <v>1791.9075144508672</v>
+      </c>
+      <c r="B30" s="61">
+        <v>333.33333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="55">
+        <f t="shared" si="0"/>
+        <v>8959.5375722543376</v>
+      </c>
+      <c r="B31" s="61">
+        <v>1666.6666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="55">
+        <f t="shared" si="0"/>
+        <v>17919.075144508675</v>
+      </c>
+      <c r="B32" s="61">
+        <v>3333.3333333333335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>25000</v>
+      </c>
+      <c r="B33" s="61">
+        <v>4645.7333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="59">
+        <v>0.18589</v>
+      </c>
+      <c r="E34" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="60">
+        <v>0.34872999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B35" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:D16"/>
@@ -4501,44 +4863,28 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4547,27 +4893,52 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Prism5.Document" shapeId="4110" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+        <oleObject progId="Origin50.Graph" shapeId="4120" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>21</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Prism5.Document" shapeId="4110" r:id="rId4"/>
+        <oleObject progId="Origin50.Graph" shapeId="4120" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Origin50.Graph" shapeId="4121" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Origin50.Graph" shapeId="4121" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Rate" sheetId="5" r:id="rId1"/>
@@ -629,7 +629,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="81">
   <si>
     <t>uL/h</t>
   </si>
@@ -883,17 +883,21 @@
   <si>
     <t>Caudal teórico (mg/min)</t>
   </si>
+  <si>
+    <t>e</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,6 +920,13 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1514,10 +1525,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1666,16 +1678,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1692,6 +1725,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1702,6 +1792,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1710,84 +1809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,18 +1818,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -2033,11 +2048,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92932928"/>
-        <c:axId val="92933504"/>
+        <c:axId val="162114368"/>
+        <c:axId val="162114944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92932928"/>
+        <c:axId val="162114368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,12 +2062,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92933504"/>
+        <c:crossAx val="162114944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92933504"/>
+        <c:axId val="162114944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92932928"/>
+        <c:crossAx val="162114368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2093,13 +2108,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>85725</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>69799</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>295273</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>57147</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2132,15 +2147,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>88838</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>411521</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>19051</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2242,7 +2257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2533,11 +2548,11 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -2555,7 +2570,7 @@
     <col min="14" max="14" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -2870,47 +2885,47 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="53">
         <v>16</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="63"/>
+      <c r="E8" s="72"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="80"/>
       <c r="J8">
         <v>25</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="65"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="54">
         <v>200</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="67"/>
+      <c r="E9" s="74"/>
       <c r="F9">
         <f>F8*B8</f>
         <v>0</v>
@@ -2918,31 +2933,31 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="65"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="55">
         <f>C10*J8</f>
         <v>1272.3724999999999</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="65"/>
+      <c r="L9" s="80"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="54">
         <v>50.8949</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="67"/>
+      <c r="E10" s="74"/>
       <c r="J10" s="55">
         <f>J9*C9*C8/60</f>
         <v>67859.866666666669</v>
@@ -2953,31 +2968,31 @@
       <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="54">
         <v>8</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="69"/>
+      <c r="E11" s="76"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="57">
         <f>C8*C9*C10/C11</f>
         <v>20357.96</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3008,12 +3023,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
@@ -3022,6 +3031,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
@@ -3040,7 +3055,7 @@
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -3072,39 +3087,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="90" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="90" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="90" t="s">
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="90" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="90" t="s">
+      <c r="O1" s="82"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="S1" s="92"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="83"/>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -3131,7 +3146,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
+      <c r="A2" s="94"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3268,216 +3283,216 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="89"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="92"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="89"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="92"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="83"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="89"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="89"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="92"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="89"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="92"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="80"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="103"/>
     </row>
     <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="74"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="100"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="90" t="s">
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="90" t="s">
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="90" t="s">
+      <c r="I13" s="82"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="90" t="s">
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="90" t="s">
+      <c r="O13" s="82"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="91"/>
-      <c r="S13" s="92"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="83"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
@@ -3605,181 +3620,269 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="89"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="92"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="83"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="89"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="89"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="92"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="83"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="89"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="89"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="92"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="89"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="92"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="80"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="103"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="77"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:D4"/>
@@ -3804,94 +3907,6 @@
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3901,19 +3916,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
@@ -3934,51 +3949,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="104" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="104" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="104" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="107" t="s">
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="107">
+      <c r="O1" s="68">
         <v>60</v>
       </c>
-      <c r="P1" s="107" t="s">
+      <c r="P1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107" t="s">
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="107" t="s">
+      <c r="S1" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="T1" s="67" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
+      <c r="A2" s="94"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4025,7 +4040,7 @@
         <v>11</v>
       </c>
       <c r="R2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="61">
         <v>5.2189300000000003</v>
@@ -4093,34 +4108,34 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="87">
         <f>36.2/7.05</f>
         <v>5.1347517730496461</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="81">
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="87">
         <f>39/1.16</f>
         <v>33.620689655172413</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="81">
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="87">
         <f>195/1.09</f>
         <v>178.89908256880733</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="103" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="67" t="s">
         <v>59</v>
       </c>
       <c r="R4">
@@ -4134,33 +4149,33 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="81">
+      <c r="A5" s="85"/>
+      <c r="B5" s="87">
         <f>37.9/7.11</f>
         <v>5.3305203938115326</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="81">
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="87">
         <f>38.6/1.17</f>
         <v>32.991452991452995</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="81">
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="87">
         <f>194/1.11</f>
         <v>174.77477477477476</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="102">
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="66">
         <f>(O5-T8)/Q8</f>
         <v>16283.340575774035</v>
       </c>
-      <c r="O5" s="101">
+      <c r="O5" s="65">
         <v>3000</v>
       </c>
       <c r="R5">
@@ -4174,28 +4189,28 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="81">
+      <c r="A6" s="85"/>
+      <c r="B6" s="87">
         <f>37/7.03</f>
         <v>5.2631578947368416</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="81">
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="87">
         <f>38.2/1.16</f>
         <v>32.931034482758626</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="81">
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="87">
         <f>194.3/1.1</f>
         <v>176.63636363636363</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
       <c r="R6">
         <v>9520</v>
       </c>
@@ -4207,28 +4222,28 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
-      <c r="B7" s="81">
+      <c r="A7" s="85"/>
+      <c r="B7" s="87">
         <f>36/6.48</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="81">
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="87">
         <f>38/1.15</f>
         <v>33.04347826086957</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="81">
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="87">
         <f>192.4/1.08</f>
         <v>178.14814814814815</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="89"/>
       <c r="R7">
         <v>19040</v>
       </c>
@@ -4240,44 +4255,44 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="81">
+      <c r="A8" s="85"/>
+      <c r="B8" s="87">
         <f>32.8/6.39</f>
         <v>5.1330203442879494</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="81">
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="87">
         <f>38.1/1.14</f>
         <v>33.421052631578952</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="81">
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="87">
         <f>191.8/1.09</f>
         <v>175.96330275229357</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="89"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="92"/>
       <c r="N8" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="98" t="s">
+      <c r="O8" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="100" t="s">
+      <c r="P8" s="64" t="s">
         <v>60</v>
       </c>
       <c r="Q8" s="59">
         <v>0.18410000000000001</v>
       </c>
-      <c r="R8" s="100" t="s">
+      <c r="R8" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="100" t="s">
+      <c r="S8" s="64" t="s">
         <v>62</v>
       </c>
       <c r="T8" s="60">
@@ -4285,32 +4300,32 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="81">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87">
         <f>35.5/7.25</f>
         <v>4.8965517241379306</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="81">
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="87">
         <f>37.8/1.12</f>
         <v>33.749999999999993</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="81">
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="87">
         <f>191.7/1.1</f>
         <v>174.27272727272725</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
-      <c r="O9" s="99" t="s">
+      <c r="I9" s="88"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="92"/>
+      <c r="O9" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="101" t="s">
+      <c r="P9" s="65" t="s">
         <v>60</v>
       </c>
       <c r="Q9">
@@ -4321,80 +4336,80 @@
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="78" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="78" t="s">
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="78" t="s">
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="103"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="98">
         <f>(336.12*1000)/($O$1*$O$2)/2</f>
         <v>2.8010000000000002</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="72">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="98">
         <f>(1995.71*1000)/($O$1*$O$2)</f>
         <v>33.261833333333335</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="72">
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="98">
         <f>(9999.6*1000)/($O$1*$O$2)</f>
         <v>166.66</v>
       </c>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="90" t="s">
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="90" t="s">
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="90" t="s">
+      <c r="I13" s="82"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="92"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4482,223 +4497,229 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="87">
         <f>407.7/1.1</f>
         <v>370.63636363636357</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="81">
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="87">
         <f>1804.7/1.03</f>
         <v>1752.1359223300972</v>
       </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="81">
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="87">
         <f>1796.1/(31/60)</f>
         <v>3476.3225806451605</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="81">
+      <c r="A17" s="85"/>
+      <c r="B17" s="87">
         <f>401.3/1.09</f>
         <v>368.16513761467888</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="81">
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="87">
         <f>1744/1.01</f>
         <v>1726.7326732673266</v>
       </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="81">
+      <c r="F17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="87">
         <f>1690.7/(29/60)</f>
         <v>3498</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="83"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="81">
+      <c r="A18" s="85"/>
+      <c r="B18" s="87">
         <f>413.2/1.12</f>
         <v>368.92857142857139</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="81">
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="87">
         <f>1786/1.02</f>
         <v>1750.9803921568628</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="81">
+      <c r="F18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="87">
         <f>1838/(31/60)</f>
         <v>3557.4193548387093</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="81">
+      <c r="A19" s="85"/>
+      <c r="B19" s="87">
         <f>406.3/1.11</f>
         <v>366.03603603603602</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="81">
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="87">
         <f>1801.7/1.02</f>
         <v>1766.372549019608</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="81">
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="87">
         <f>1751/(30/60)</f>
         <v>3502</v>
       </c>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="83"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="81">
+      <c r="A20" s="85"/>
+      <c r="B20" s="87">
         <f>419.5/1.14</f>
         <v>367.98245614035091</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="81">
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="87">
         <f>1738.2/1</f>
         <v>1738.2</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="81">
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="87">
         <f>1933.9/(33/60)</f>
         <v>3516.181818181818</v>
       </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="92"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="81">
+      <c r="A21" s="86"/>
+      <c r="B21" s="87">
         <f>405.1/1.13</f>
         <v>358.49557522123899</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="81">
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="87">
         <f>1734.7/1</f>
         <v>1734.7</v>
       </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="81">
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="87">
         <f>1697.8/(29/60)</f>
         <v>3512.6896551724135</v>
       </c>
-      <c r="I21" s="82"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="92"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="78" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="78" t="s">
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="78" t="s">
+      <c r="I22" s="102"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="103"/>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="72">
+      <c r="B23" s="98">
         <f>(19999.15*1000)/($O$1*$O$2)</f>
         <v>333.31916666666666</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="72">
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="98">
         <f>(99995.75*1000)/($O$1*$O$2)</f>
         <v>1666.5958333333333</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="72">
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="98">
         <f>1*(199991.48*1000)/($O$1*$O$2)</f>
         <v>3333.1913333333332</v>
       </c>
-      <c r="I23" s="73"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="69" t="s">
         <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4707,6 +4728,14 @@
       </c>
       <c r="B26" s="61">
         <v>5.7666666666666666</v>
+      </c>
+      <c r="D26">
+        <f>A26*$D$34+$G$34</f>
+        <v>6.1113200000000001</v>
+      </c>
+      <c r="E26" s="110">
+        <f>(B26-D26)/B26</f>
+        <v>-5.9766473988439331E-2</v>
       </c>
       <c r="J26" s="55"/>
     </row>
@@ -4718,51 +4747,99 @@
       <c r="B27" s="61">
         <v>33.333333333333336</v>
       </c>
+      <c r="D27">
+        <f>A27*$D$34+$G$34</f>
+        <v>33.658498786127176</v>
+      </c>
+      <c r="E27" s="110">
+        <f t="shared" ref="E27:E33" si="0">(B27-D27)/B27</f>
+        <v>-9.754963583815196E-3</v>
+      </c>
       <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
-        <f t="shared" ref="A28:A32" si="0">(A27*B28)/B27</f>
+        <f t="shared" ref="A28:A32" si="1">(A27*B28)/B27</f>
         <v>895.95375722543361</v>
       </c>
       <c r="B28" s="61">
         <v>166.66666666666666</v>
       </c>
+      <c r="D28">
+        <f>A28*$D$34+$G$34</f>
+        <v>166.89757393063584</v>
+      </c>
+      <c r="E28" s="110">
+        <f t="shared" si="0"/>
+        <v>-1.3854435838151177E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1343.9306358381505</v>
       </c>
       <c r="B29" s="61">
         <v>250</v>
       </c>
+      <c r="D29">
+        <f>A29*$D$34+$G$34</f>
+        <v>250.17199589595378</v>
+      </c>
+      <c r="E29" s="110">
+        <f t="shared" si="0"/>
+        <v>-6.8798358381513933E-4</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1791.9075144508672</v>
       </c>
       <c r="B30" s="61">
         <v>333.33333333333331</v>
       </c>
+      <c r="D30">
+        <f>A30*$D$34+$G$34</f>
+        <v>333.4464178612717</v>
+      </c>
+      <c r="E30" s="110">
+        <f t="shared" si="0"/>
+        <v>-3.3925358381515028E-4</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8959.5375722543376</v>
       </c>
       <c r="B31" s="61">
         <v>1666.6666666666667</v>
       </c>
+      <c r="D31">
+        <f>A31*$D$34+$G$34</f>
+        <v>1665.8371693063586</v>
+      </c>
+      <c r="E31" s="110">
+        <f t="shared" si="0"/>
+        <v>4.9769841618485771E-4</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17919.075144508675</v>
       </c>
       <c r="B32" s="61">
         <v>3333.3333333333335</v>
+      </c>
+      <c r="D32">
+        <f>A32*$D$34+$G$34</f>
+        <v>3331.3256086127176</v>
+      </c>
+      <c r="E32" s="110">
+        <f t="shared" si="0"/>
+        <v>6.0231741618476916E-4</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4772,24 +4849,32 @@
       <c r="B33" s="61">
         <v>4645.7333333333336</v>
       </c>
+      <c r="D33">
+        <f>A33*$D$34+$G$34</f>
+        <v>4647.5987299999997</v>
+      </c>
+      <c r="E33" s="110">
+        <f t="shared" si="0"/>
+        <v>-4.0152900152099321E-4</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="64" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="59">
         <v>0.18589</v>
       </c>
-      <c r="E34" s="100" t="s">
+      <c r="E34" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="100" t="s">
+      <c r="F34" s="64" t="s">
         <v>62</v>
       </c>
       <c r="G34" s="60">
@@ -4797,18 +4882,135 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="65" t="s">
         <v>60</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="111"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="D39" s="61">
+        <f t="shared" ref="D39:D44" si="2">A39*$D$34+$G$34</f>
+        <v>6.2972099999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>190</v>
+      </c>
+      <c r="D40" s="61">
+        <f t="shared" si="2"/>
+        <v>35.667830000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>952</v>
+      </c>
+      <c r="D41" s="61">
+        <f t="shared" si="2"/>
+        <v>177.31600999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1904</v>
+      </c>
+      <c r="D42" s="61">
+        <f t="shared" si="2"/>
+        <v>354.28328999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9520</v>
+      </c>
+      <c r="D43" s="61">
+        <f t="shared" si="2"/>
+        <v>1770.02153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>19040</v>
+      </c>
+      <c r="D44" s="61">
+        <f t="shared" si="2"/>
+        <v>3539.6943300000003</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:D4"/>
@@ -4825,66 +5027,6 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4953,7 +5095,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -5023,7 +5165,7 @@
       <selection activeCell="G1" sqref="G1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">

--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Rate" sheetId="5" r:id="rId1"/>
@@ -408,6 +408,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+teórico</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O5" authorId="1">
       <text>
         <r>
@@ -432,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="1">
+    <comment ref="P5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +466,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Lisbeth:</t>
+          <t>NANOMEDICINA:</t>
         </r>
         <r>
           <rPr>
@@ -452,11 +476,12 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Flujo (mg/min)</t>
+teórico
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1">
+    <comment ref="N6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +491,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Lisbeth:</t>
+          <t>NANOMEDICINA:</t>
         </r>
         <r>
           <rPr>
@@ -476,7 +501,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Frecuencia (Hz)</t>
+experimental</t>
         </r>
       </text>
     </comment>
@@ -501,6 +526,54 @@
           </rPr>
           <t xml:space="preserve">
 experimental/teorico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O14" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Flujo (mg/min)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R14" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Frecuencia (Hz)</t>
         </r>
       </text>
     </comment>
@@ -629,7 +702,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="86">
   <si>
     <t>uL/h</t>
   </si>
@@ -886,6 +959,21 @@
   <si>
     <t>e</t>
   </si>
+  <si>
+    <t>Y (uL/h)</t>
+  </si>
+  <si>
+    <t>Y (mg/min)</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>promedio</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
 </sst>
 </file>
 
@@ -895,7 +983,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1690,9 +1778,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1705,10 +1790,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1725,11 +1818,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1749,66 +1890,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1818,8 +1905,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1846,7 +1934,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="168" formatCode="0.000"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2048,11 +2136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162114368"/>
-        <c:axId val="162114944"/>
+        <c:axId val="150195008"/>
+        <c:axId val="150195584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162114368"/>
+        <c:axId val="150195008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,12 +2150,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162114944"/>
+        <c:crossAx val="150195584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162114944"/>
+        <c:axId val="150195584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162114368"/>
+        <c:crossAx val="150195008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2111,8 +2199,8 @@
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -2148,13 +2236,13 @@
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2548,8 +2636,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,47 +2973,47 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="53">
         <v>16</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="73"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="80"/>
+      <c r="I8" s="75"/>
       <c r="J8">
         <v>25</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="80"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="54">
         <v>200</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="74"/>
+      <c r="E9" s="77"/>
       <c r="F9">
         <f>F8*B8</f>
         <v>0</v>
@@ -2933,31 +3021,31 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="80"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="55">
         <f>C10*J8</f>
         <v>1272.3724999999999</v>
       </c>
-      <c r="K9" s="80" t="s">
+      <c r="K9" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="80"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="54">
         <v>50.8949</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="74"/>
+      <c r="E10" s="77"/>
       <c r="J10" s="55">
         <f>J9*C9*C8/60</f>
         <v>67859.866666666669</v>
@@ -2968,31 +3056,31 @@
       <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="54">
         <v>8</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="76"/>
+      <c r="E11" s="79"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="57">
         <f>C8*C9*C10/C11</f>
         <v>20357.96</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="74"/>
+      <c r="E12" s="77"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3023,6 +3111,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
@@ -3031,12 +3125,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
@@ -3087,39 +3175,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="81" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="81" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="81" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="81" t="s">
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="81" t="s">
+      <c r="O1" s="101"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="102"/>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -3146,7 +3234,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
+      <c r="A2" s="107"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3283,216 +3371,216 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="92"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="96"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="92"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="96"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="89"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="93"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="92"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="96"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="92"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="96"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="103"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="90"/>
     </row>
     <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="100"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="84"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="81" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="81" t="s">
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="81" t="s">
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="81" t="s">
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="81" t="s">
+      <c r="O13" s="101"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="82"/>
-      <c r="S13" s="83"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="102"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
@@ -3620,213 +3708,237 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="92"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="96"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="89"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="93"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="92"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="96"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="89"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="93"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="92"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="96"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="92"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="96"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="103"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="90"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="106"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:D16"/>
@@ -3851,62 +3963,38 @@
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3918,8 +4006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3938,9 +4026,9 @@
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -3949,51 +4037,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="107" t="s">
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="107" t="s">
+      <c r="F1" s="109"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="107" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="68" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="68">
+      <c r="O1" s="67">
         <v>60</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68" t="s">
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
+      <c r="A2" s="107"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4108,35 +4196,38 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="91">
         <f>36.2/7.05</f>
         <v>5.1347517730496461</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="87">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="91">
         <f>39/1.16</f>
         <v>33.620689655172413</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="87">
+      <c r="F4" s="92"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="91">
         <f>195/1.09</f>
         <v>178.89908256880733</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="67" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="67" t="s">
-        <v>59</v>
+      <c r="O4" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>82</v>
       </c>
       <c r="R4">
         <v>952</v>
@@ -4149,34 +4240,41 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="87">
+      <c r="A5" s="104"/>
+      <c r="B5" s="91">
         <f>37.9/7.11</f>
         <v>5.3305203938115326</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="87">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="91">
         <f>38.6/1.17</f>
         <v>32.991452991452995</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="87">
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="91">
         <f>194/1.11</f>
         <v>174.77477477477476</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="66">
-        <f>(O5-T8)/Q8</f>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="111">
+        <f>(P5-T14)/Q14</f>
         <v>16283.340575774035</v>
       </c>
       <c r="O5" s="65">
+        <f>P5*60</f>
+        <v>180000</v>
+      </c>
+      <c r="P5">
         <v>3000</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
       </c>
       <c r="R5">
         <v>1904</v>
@@ -4189,28 +4287,41 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="87">
+      <c r="A6" s="104"/>
+      <c r="B6" s="91">
         <f>37/7.03</f>
         <v>5.2631578947368416</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="87">
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="91">
         <f>38.2/1.16</f>
         <v>32.931034482758626</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="87">
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="91">
         <f>194.3/1.1</f>
         <v>176.63636363636363</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="111">
+        <v>16279</v>
+      </c>
+      <c r="O6">
+        <v>180000</v>
+      </c>
+      <c r="P6" s="55">
+        <f>1.8245*1000/(37/60)</f>
+        <v>2958.6486486486483</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>83</v>
+      </c>
       <c r="R6">
         <v>9520</v>
       </c>
@@ -4221,29 +4332,33 @@
         <v>14.3483</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="85"/>
-      <c r="B7" s="87">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="104"/>
+      <c r="B7" s="91">
         <f>36/6.48</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="87">
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="91">
         <f>38/1.15</f>
         <v>33.04347826086957</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="87">
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="91">
         <f>192.4/1.08</f>
         <v>178.14814814814815</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="89"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
+      <c r="P7" s="55">
+        <f>1.9781*1000/(40/60)</f>
+        <v>2967.15</v>
+      </c>
       <c r="R7">
         <v>19040</v>
       </c>
@@ -4254,162 +4369,176 @@
         <v>26.96321</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
-      <c r="B8" s="87">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="91">
         <f>32.8/6.39</f>
         <v>5.1330203442879494</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="87">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="91">
         <f>38.1/1.14</f>
         <v>33.421052631578952</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="87">
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="91">
         <f>191.8/1.09</f>
         <v>175.96330275229357</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="59">
-        <v>0.18410000000000001</v>
-      </c>
-      <c r="R8" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="S8" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="T8" s="60">
-        <v>2.2370000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87">
+      <c r="I8" s="92"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
+      <c r="P8" s="55">
+        <f>1.8915*1000/(38/60)</f>
+        <v>2986.5789473684213</v>
+      </c>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="105"/>
+      <c r="B9" s="91">
         <f>35.5/7.25</f>
         <v>4.8965517241379306</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="87">
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="91">
         <f>37.8/1.12</f>
         <v>33.749999999999993</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="87">
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="91">
         <f>191.7/1.1</f>
         <v>174.27272727272725</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="92"/>
-      <c r="O9" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9">
-        <v>0.99990000000000001</v>
-      </c>
+      <c r="I9" s="92"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
+      <c r="P9" s="55">
+        <f>1.9894*1000/(40/60)</f>
+        <v>2984.1000000000004</v>
+      </c>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="101" t="s">
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="101" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="101" t="s">
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="102"/>
-      <c r="M10" s="103"/>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+      <c r="P10" s="55">
+        <f>1.9725*1000/(39/60)</f>
+        <v>3034.6153846153843</v>
+      </c>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="82">
         <f>(336.12*1000)/($O$1*$O$2)/2</f>
         <v>2.8010000000000002</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="98">
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="82">
         <f>(1995.71*1000)/($O$1*$O$2)</f>
         <v>33.261833333333335</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="98">
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="82">
         <f>(9999.6*1000)/($O$1*$O$2)</f>
         <v>166.66</v>
       </c>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="100"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
+      <c r="P11" s="55">
+        <f>1.8824*1000/(38/60)</f>
+        <v>2972.2105263157896</v>
+      </c>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P12" s="61">
+        <f>SUM(P6:P11)/6</f>
+        <v>2983.8839178247072</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="81" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="81" t="s">
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="81" t="s">
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
+      <c r="P13" s="61">
+        <f>(P5-P12)/P5*100</f>
+        <v>0.53720273917642769</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="107"/>
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4446,8 +4575,29 @@
       <c r="M14" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="59">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="60">
+        <v>2.2370000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4495,224 +4645,233 @@
         <f>L15*1000</f>
         <v>4645.7333333333336</v>
       </c>
+      <c r="O15" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15">
+        <v>0.99990000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="87">
+      <c r="B16" s="91">
         <f>407.7/1.1</f>
         <v>370.63636363636357</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="87">
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="91">
         <f>1804.7/1.03</f>
         <v>1752.1359223300972</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="87">
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="91">
         <f>1796.1/(31/60)</f>
         <v>3476.3225806451605</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="87">
+      <c r="A17" s="104"/>
+      <c r="B17" s="91">
         <f>401.3/1.09</f>
         <v>368.16513761467888</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="87">
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="91">
         <f>1744/1.01</f>
         <v>1726.7326732673266</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="87">
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="91">
         <f>1690.7/(29/60)</f>
         <v>3498</v>
       </c>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="93"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="87">
+      <c r="A18" s="104"/>
+      <c r="B18" s="91">
         <f>413.2/1.12</f>
         <v>368.92857142857139</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="87">
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="91">
         <f>1786/1.02</f>
         <v>1750.9803921568628</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="87">
+      <c r="F18" s="92"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="91">
         <f>1838/(31/60)</f>
         <v>3557.4193548387093</v>
       </c>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="96"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="85"/>
-      <c r="B19" s="87">
+      <c r="A19" s="104"/>
+      <c r="B19" s="91">
         <f>406.3/1.11</f>
         <v>366.03603603603602</v>
       </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="87">
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="91">
         <f>1801.7/1.02</f>
         <v>1766.372549019608</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="87">
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="91">
         <f>1751/(30/60)</f>
         <v>3502</v>
       </c>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="93"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="87">
+      <c r="A20" s="104"/>
+      <c r="B20" s="91">
         <f>419.5/1.14</f>
         <v>367.98245614035091</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="87">
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="91">
         <f>1738.2/1</f>
         <v>1738.2</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="87">
+      <c r="F20" s="92"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="91">
         <f>1933.9/(33/60)</f>
         <v>3516.181818181818</v>
       </c>
-      <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="96"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="87">
+      <c r="A21" s="105"/>
+      <c r="B21" s="91">
         <f>405.1/1.13</f>
         <v>358.49557522123899</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="87">
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="91">
         <f>1734.7/1</f>
         <v>1734.7</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="87">
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="91">
         <f>1697.8/(29/60)</f>
         <v>3512.6896551724135</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="101" t="s">
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="101" t="s">
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="102"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="101" t="s">
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="102"/>
-      <c r="M22" s="103"/>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="82">
         <f>(19999.15*1000)/($O$1*$O$2)</f>
         <v>333.31916666666666</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="98">
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="82">
         <f>(99995.75*1000)/($O$1*$O$2)</f>
         <v>1666.5958333333333</v>
       </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="98">
+      <c r="F23" s="83"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="82">
         <f>1*(199991.48*1000)/($O$1*$O$2)</f>
         <v>3333.1913333333332</v>
       </c>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="68" t="s">
         <v>79</v>
       </c>
       <c r="D25" t="s">
@@ -4730,10 +4889,10 @@
         <v>5.7666666666666666</v>
       </c>
       <c r="D26">
-        <f>A26*$D$34+$G$34</f>
+        <f t="shared" ref="D26:D33" si="0">A26*$D$34+$G$34</f>
         <v>6.1113200000000001</v>
       </c>
-      <c r="E26" s="110">
+      <c r="E26" s="70">
         <f>(B26-D26)/B26</f>
         <v>-5.9766473988439331E-2</v>
       </c>
@@ -4748,97 +4907,97 @@
         <v>33.333333333333336</v>
       </c>
       <c r="D27">
-        <f>A27*$D$34+$G$34</f>
+        <f t="shared" si="0"/>
         <v>33.658498786127176</v>
       </c>
-      <c r="E27" s="110">
-        <f t="shared" ref="E27:E33" si="0">(B27-D27)/B27</f>
+      <c r="E27" s="70">
+        <f t="shared" ref="E27:E33" si="1">(B27-D27)/B27</f>
         <v>-9.754963583815196E-3</v>
       </c>
       <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
-        <f t="shared" ref="A28:A32" si="1">(A27*B28)/B27</f>
+        <f t="shared" ref="A28:A32" si="2">(A27*B28)/B27</f>
         <v>895.95375722543361</v>
       </c>
       <c r="B28" s="61">
         <v>166.66666666666666</v>
       </c>
       <c r="D28">
-        <f>A28*$D$34+$G$34</f>
+        <f t="shared" si="0"/>
         <v>166.89757393063584</v>
       </c>
-      <c r="E28" s="110">
-        <f t="shared" si="0"/>
+      <c r="E28" s="70">
+        <f t="shared" si="1"/>
         <v>-1.3854435838151177E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1343.9306358381505</v>
       </c>
       <c r="B29" s="61">
         <v>250</v>
       </c>
       <c r="D29">
-        <f>A29*$D$34+$G$34</f>
+        <f t="shared" si="0"/>
         <v>250.17199589595378</v>
       </c>
-      <c r="E29" s="110">
-        <f t="shared" si="0"/>
+      <c r="E29" s="70">
+        <f t="shared" si="1"/>
         <v>-6.8798358381513933E-4</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1791.9075144508672</v>
       </c>
       <c r="B30" s="61">
         <v>333.33333333333331</v>
       </c>
       <c r="D30">
-        <f>A30*$D$34+$G$34</f>
+        <f t="shared" si="0"/>
         <v>333.4464178612717</v>
       </c>
-      <c r="E30" s="110">
-        <f t="shared" si="0"/>
+      <c r="E30" s="70">
+        <f t="shared" si="1"/>
         <v>-3.3925358381515028E-4</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8959.5375722543376</v>
       </c>
       <c r="B31" s="61">
         <v>1666.6666666666667</v>
       </c>
       <c r="D31">
-        <f>A31*$D$34+$G$34</f>
+        <f t="shared" si="0"/>
         <v>1665.8371693063586</v>
       </c>
-      <c r="E31" s="110">
-        <f t="shared" si="0"/>
+      <c r="E31" s="70">
+        <f t="shared" si="1"/>
         <v>4.9769841618485771E-4</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17919.075144508675</v>
       </c>
       <c r="B32" s="61">
         <v>3333.3333333333335</v>
       </c>
       <c r="D32">
-        <f>A32*$D$34+$G$34</f>
+        <f t="shared" si="0"/>
         <v>3331.3256086127176</v>
       </c>
-      <c r="E32" s="110">
-        <f t="shared" si="0"/>
+      <c r="E32" s="70">
+        <f t="shared" si="1"/>
         <v>6.0231741618476916E-4</v>
       </c>
     </row>
@@ -4850,11 +5009,11 @@
         <v>4645.7333333333336</v>
       </c>
       <c r="D33">
-        <f>A33*$D$34+$G$34</f>
+        <f t="shared" si="0"/>
         <v>4647.5987299999997</v>
       </c>
-      <c r="E33" s="110">
-        <f t="shared" si="0"/>
+      <c r="E33" s="70">
+        <f t="shared" si="1"/>
         <v>-4.0152900152099321E-4</v>
       </c>
     </row>
@@ -4893,14 +5052,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="111"/>
+      <c r="E38" s="71"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>32</v>
       </c>
       <c r="D39" s="61">
-        <f t="shared" ref="D39:D44" si="2">A39*$D$34+$G$34</f>
+        <f t="shared" ref="D39:D44" si="3">A39*$D$34+$G$34</f>
         <v>6.2972099999999998</v>
       </c>
     </row>
@@ -4909,7 +5068,7 @@
         <v>190</v>
       </c>
       <c r="D40" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.667830000000002</v>
       </c>
     </row>
@@ -4918,7 +5077,7 @@
         <v>952</v>
       </c>
       <c r="D41" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>177.31600999999998</v>
       </c>
     </row>
@@ -4927,7 +5086,7 @@
         <v>1904</v>
       </c>
       <c r="D42" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>354.28328999999997</v>
       </c>
     </row>
@@ -4936,7 +5095,7 @@
         <v>9520</v>
       </c>
       <c r="D43" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1770.02153</v>
       </c>
     </row>
@@ -4945,34 +5104,50 @@
         <v>19040</v>
       </c>
       <c r="D44" s="61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3539.6943300000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:D16"/>
@@ -4989,44 +5164,28 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5045,8 +5204,8 @@
                 <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>40</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -5066,13 +5225,13 @@
               <from>
                 <xdr:col>13</xdr:col>
                 <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>

--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -103,59 +103,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Lisbeth</author>
     <author>NANOMEDICINA</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Lisbeth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-flujo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Lisbeth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-frecuencia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="1">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="1">
+    <comment ref="N4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="1">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="1">
+    <comment ref="H16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="1">
+    <comment ref="N16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -408,103 +359,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>NANOMEDICINA:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-teórico</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Lisbeth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-mg/min</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>NANOMEDICINA:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-teórico
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>NANOMEDICINA:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-experimental</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B10" authorId="0">
       <text>
         <r>
@@ -526,54 +380,6 @@
           </rPr>
           <t xml:space="preserve">
 experimental/teorico</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O14" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Lisbeth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Flujo (mg/min)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R14" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Lisbeth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Frecuencia (Hz)</t>
         </r>
       </text>
     </comment>
@@ -697,12 +503,157 @@
         </r>
       </text>
     </comment>
+    <comment ref="N34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Flujo (mg/min)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Frecuencia (Hz)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+teórico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I36" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+mg/min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+teórico
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+experimental</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
   <si>
     <t>uL/h</t>
   </si>
@@ -915,15 +866,9 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Frecuencia (Hz)</t>
-  </si>
-  <si>
     <t>/25000</t>
   </si>
   <si>
-    <t>Caudal (mg/min)</t>
-  </si>
-  <si>
     <t>190/179</t>
   </si>
   <si>
@@ -973,6 +918,39 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>Frecuencia experimental (Hz)</t>
+  </si>
+  <si>
+    <t>Caudal experimental (mg/min)</t>
+  </si>
+  <si>
+    <t>f(Hz)</t>
+  </si>
+  <si>
+    <t>V(uL)</t>
+  </si>
+  <si>
+    <t>C =</t>
+  </si>
+  <si>
+    <t>Q(uL/s)</t>
+  </si>
+  <si>
+    <t>L(mm)</t>
+  </si>
+  <si>
+    <t>Calibración</t>
+  </si>
+  <si>
+    <t>Caudal mínimo</t>
+  </si>
+  <si>
+    <t>Caudal</t>
+  </si>
+  <si>
+    <t>Caudal máximo</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1792,16 +1770,19 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1818,6 +1799,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1828,6 +1866,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1836,66 +1883,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1905,13 +1892,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -2136,11 +2126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150195008"/>
-        <c:axId val="150195584"/>
+        <c:axId val="92474176"/>
+        <c:axId val="92474752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150195008"/>
+        <c:axId val="92474176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,12 +2140,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150195584"/>
+        <c:crossAx val="92474752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150195584"/>
+        <c:axId val="92474752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150195008"/>
+        <c:crossAx val="92474176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2193,16 +2183,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>57151</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>495300</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>462539</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2234,16 +2224,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>186854</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2345,7 +2335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2637,10 +2627,10 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -2658,7 +2648,7 @@
     <col min="14" max="14" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -2973,47 +2963,47 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="53">
         <v>16</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="76"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="75"/>
+      <c r="I8" s="84"/>
       <c r="J8">
         <v>25</v>
       </c>
-      <c r="K8" s="75" t="s">
+      <c r="K8" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="75"/>
+      <c r="L8" s="84"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="54">
         <v>200</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="78"/>
       <c r="F9">
         <f>F8*B8</f>
         <v>0</v>
@@ -3021,31 +3011,31 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="75"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="55">
         <f>C10*J8</f>
         <v>1272.3724999999999</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="75"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="54">
         <v>50.8949</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="78"/>
       <c r="J10" s="55">
         <f>J9*C9*C8/60</f>
         <v>67859.866666666669</v>
@@ -3056,46 +3046,46 @@
       <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="73"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="54">
         <v>8</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="79"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="81"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="57">
         <f>C8*C9*C10/C11</f>
         <v>20357.96</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="77"/>
+      <c r="E12" s="78"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16">
         <v>20381</v>
@@ -3111,12 +3101,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
@@ -3125,6 +3109,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
@@ -3137,13 +3127,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -3174,40 +3164,40 @@
     <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="100" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="100" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="100" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="101"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="100" t="s">
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="101"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="100" t="s">
+      <c r="O1" s="86"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="101"/>
-      <c r="S1" s="102"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="87"/>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -3217,24 +3207,9 @@
       <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="98"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3299,7 +3274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3370,8 +3345,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="91"/>
@@ -3393,8 +3368,8 @@
       <c r="R4" s="95"/>
       <c r="S4" s="96"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
       <c r="B5" s="91"/>
       <c r="C5" s="92"/>
       <c r="D5" s="93"/>
@@ -3414,8 +3389,8 @@
       <c r="R5" s="92"/>
       <c r="S5" s="93"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
       <c r="B6" s="91"/>
       <c r="C6" s="92"/>
       <c r="D6" s="93"/>
@@ -3435,8 +3410,8 @@
       <c r="R6" s="95"/>
       <c r="S6" s="96"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="89"/>
       <c r="B7" s="91"/>
       <c r="C7" s="92"/>
       <c r="D7" s="93"/>
@@ -3456,8 +3431,8 @@
       <c r="R7" s="92"/>
       <c r="S7" s="93"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="89"/>
       <c r="B8" s="91"/>
       <c r="C8" s="92"/>
       <c r="D8" s="93"/>
@@ -3477,20 +3452,20 @@
       <c r="R8" s="95"/>
       <c r="S8" s="96"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="90"/>
       <c r="B9" s="91"/>
       <c r="C9" s="92"/>
       <c r="D9" s="93"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="91"/>
       <c r="I9" s="92"/>
       <c r="J9" s="93"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="101"/>
       <c r="N9" s="91"/>
       <c r="O9" s="92"/>
       <c r="P9" s="93"/>
@@ -3498,89 +3473,89 @@
       <c r="R9" s="95"/>
       <c r="S9" s="96"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="90"/>
-    </row>
-    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="107"/>
+    </row>
+    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="84"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="104"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="100" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="100" t="s">
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="100" t="s">
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="100" t="s">
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="101"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="100" t="s">
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="101"/>
-      <c r="S13" s="102"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="87"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="98"/>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
@@ -3636,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3707,8 +3682,8 @@
         <v>4645.7333333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="88" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="91"/>
@@ -3731,7 +3706,7 @@
       <c r="S16" s="96"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="91"/>
       <c r="C17" s="92"/>
       <c r="D17" s="93"/>
@@ -3752,7 +3727,7 @@
       <c r="S17" s="93"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
       <c r="D18" s="93"/>
@@ -3773,7 +3748,7 @@
       <c r="S18" s="96"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="91"/>
       <c r="C19" s="92"/>
       <c r="D19" s="93"/>
@@ -3794,7 +3769,7 @@
       <c r="S19" s="93"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="91"/>
       <c r="C20" s="92"/>
       <c r="D20" s="93"/>
@@ -3815,19 +3790,19 @@
       <c r="S20" s="96"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="91"/>
       <c r="C21" s="92"/>
       <c r="D21" s="93"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="91"/>
       <c r="I21" s="92"/>
       <c r="J21" s="93"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="101"/>
       <c r="N21" s="91"/>
       <c r="O21" s="92"/>
       <c r="P21" s="93"/>
@@ -3839,50 +3814,138 @@
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="107"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="87"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:D4"/>
@@ -3907,94 +3970,6 @@
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4007,13 +3982,13 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -4022,45 +3997,44 @@
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="67" t="s">
+      <c r="B1" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="112"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="115" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="67">
@@ -4070,18 +4044,9 @@
         <v>9</v>
       </c>
       <c r="Q1" s="67"/>
-      <c r="R1" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="66" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
+      <c r="A2" s="98"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4118,7 +4083,7 @@
       <c r="M2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="63" t="s">
         <v>10</v>
       </c>
       <c r="O2">
@@ -4126,15 +4091,6 @@
       </c>
       <c r="P2" t="s">
         <v>11</v>
-      </c>
-      <c r="R2">
-        <v>32</v>
-      </c>
-      <c r="S2" s="61">
-        <v>5.2189300000000003</v>
-      </c>
-      <c r="T2" s="61">
-        <v>0.22186</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -4185,18 +4141,9 @@
         <f>L3*1000</f>
         <v>250</v>
       </c>
-      <c r="R3">
-        <v>190</v>
-      </c>
-      <c r="S3" s="61">
-        <v>33.292949999999998</v>
-      </c>
-      <c r="T3" s="61">
-        <v>0.35124</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="88" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="91">
@@ -4220,27 +4167,22 @@
       <c r="K4" s="94"/>
       <c r="L4" s="95"/>
       <c r="M4" s="96"/>
-      <c r="N4" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4">
-        <v>952</v>
-      </c>
-      <c r="S4" s="61">
-        <v>176.44907000000001</v>
-      </c>
-      <c r="T4" s="61">
-        <v>1.82758</v>
-      </c>
+      <c r="N4" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="91">
         <f>37.9/7.11</f>
         <v>5.3305203938115326</v>
@@ -4262,32 +4204,15 @@
       <c r="K5" s="91"/>
       <c r="L5" s="92"/>
       <c r="M5" s="93"/>
-      <c r="N5" s="111">
-        <f>(P5-T14)/Q14</f>
-        <v>16283.340575774035</v>
-      </c>
-      <c r="O5" s="65">
-        <f>P5*60</f>
-        <v>180000</v>
-      </c>
-      <c r="P5">
-        <v>3000</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>1904</v>
-      </c>
-      <c r="S5" s="61">
-        <v>366.70735999999999</v>
-      </c>
-      <c r="T5" s="61">
-        <v>4.2896599999999996</v>
+      <c r="P5" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="65" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="91">
         <f>37/7.03</f>
         <v>5.2631578947368416</v>
@@ -4309,31 +4234,9 @@
       <c r="K6" s="94"/>
       <c r="L6" s="95"/>
       <c r="M6" s="96"/>
-      <c r="N6" s="111">
-        <v>16279</v>
-      </c>
-      <c r="O6">
-        <v>180000</v>
-      </c>
-      <c r="P6" s="55">
-        <f>1.8245*1000/(37/60)</f>
-        <v>2958.6486486486483</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6">
-        <v>9520</v>
-      </c>
-      <c r="S6" s="61">
-        <v>1744.8535899999999</v>
-      </c>
-      <c r="T6" s="61">
-        <v>14.3483</v>
-      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="91">
         <f>36/6.48</f>
         <v>5.5555555555555554</v>
@@ -4355,22 +4258,9 @@
       <c r="K7" s="91"/>
       <c r="L7" s="92"/>
       <c r="M7" s="93"/>
-      <c r="P7" s="55">
-        <f>1.9781*1000/(40/60)</f>
-        <v>2967.15</v>
-      </c>
-      <c r="R7">
-        <v>19040</v>
-      </c>
-      <c r="S7" s="61">
-        <v>3510.4355700000001</v>
-      </c>
-      <c r="T7" s="61">
-        <v>26.96321</v>
-      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="91">
         <f>32.8/6.39</f>
         <v>5.1330203442879494</v>
@@ -4392,15 +4282,11 @@
       <c r="K8" s="94"/>
       <c r="L8" s="95"/>
       <c r="M8" s="96"/>
-      <c r="P8" s="55">
-        <f>1.8915*1000/(38/60)</f>
-        <v>2986.5789473684213</v>
-      </c>
       <c r="S8" s="61"/>
       <c r="T8" s="61"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="91">
         <f>35.5/7.25</f>
         <v>4.8965517241379306</v>
@@ -4422,10 +4308,6 @@
       <c r="K9" s="94"/>
       <c r="L9" s="95"/>
       <c r="M9" s="96"/>
-      <c r="P9" s="55">
-        <f>1.9894*1000/(40/60)</f>
-        <v>2984.1000000000004</v>
-      </c>
       <c r="S9" s="61"/>
       <c r="T9" s="61"/>
     </row>
@@ -4433,112 +4315,90 @@
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="88" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
-      <c r="P10" s="55">
-        <f>1.9725*1000/(39/60)</f>
-        <v>3034.6153846153843</v>
-      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="106"/>
+      <c r="M10" s="107"/>
       <c r="S10" s="61"/>
       <c r="T10" s="61"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="82">
-        <f>(336.12*1000)/($O$1*$O$2)/2</f>
-        <v>2.8010000000000002</v>
-      </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="82">
+      <c r="B11" s="102">
+        <f>(336.12*1000)/($O$1*$O$2)</f>
+        <v>5.6020000000000003</v>
+      </c>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="102">
         <f>(1995.71*1000)/($O$1*$O$2)</f>
         <v>33.261833333333335</v>
       </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="82">
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="102">
         <f>(9999.6*1000)/($O$1*$O$2)</f>
         <v>166.66</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
-      <c r="P11" s="55">
-        <f>1.8824*1000/(38/60)</f>
-        <v>2972.2105263157896</v>
-      </c>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="104"/>
       <c r="S11" s="61"/>
       <c r="T11" s="61"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P12" s="61">
-        <f>SUM(P6:P11)/6</f>
-        <v>2983.8839178247072</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>84</v>
-      </c>
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="102"/>
-      <c r="P13" s="61">
-        <f>(P5-P12)/P5*100</f>
-        <v>0.53720273917642769</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>85</v>
-      </c>
+      <c r="B13" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
       <c r="S13" s="61"/>
       <c r="T13" s="61"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="107"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="98"/>
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4575,29 +4435,8 @@
       <c r="M14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="59">
-        <v>0.18410000000000001</v>
-      </c>
-      <c r="R14" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14" s="60">
-        <v>2.2370000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4645,18 +4484,9 @@
         <f>L15*1000</f>
         <v>4645.7333333333336</v>
       </c>
-      <c r="O15" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15">
-        <v>0.99990000000000001</v>
-      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="88" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="91">
@@ -4681,8 +4511,8 @@
       <c r="L16" s="95"/>
       <c r="M16" s="96"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
       <c r="B17" s="91">
         <f>401.3/1.09</f>
         <v>368.16513761467888</v>
@@ -4705,8 +4535,8 @@
       <c r="L17" s="92"/>
       <c r="M17" s="93"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="89"/>
       <c r="B18" s="91">
         <f>413.2/1.12</f>
         <v>368.92857142857139</v>
@@ -4729,8 +4559,8 @@
       <c r="L18" s="95"/>
       <c r="M18" s="96"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="89"/>
       <c r="B19" s="91">
         <f>406.3/1.11</f>
         <v>366.03603603603602</v>
@@ -4753,8 +4583,8 @@
       <c r="L19" s="92"/>
       <c r="M19" s="93"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="89"/>
       <c r="B20" s="91">
         <f>419.5/1.14</f>
         <v>367.98245614035091</v>
@@ -4777,8 +4607,8 @@
       <c r="L20" s="95"/>
       <c r="M20" s="96"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="90"/>
       <c r="B21" s="91">
         <f>405.1/1.13</f>
         <v>358.49557522123899</v>
@@ -4801,58 +4631,58 @@
       <c r="L21" s="95"/>
       <c r="M21" s="96"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="106"/>
+      <c r="M22" s="107"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="82">
+      <c r="B23" s="102">
         <f>(19999.15*1000)/($O$1*$O$2)</f>
         <v>333.31916666666666</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="82">
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="102">
         <f>(99995.75*1000)/($O$1*$O$2)</f>
         <v>1666.5958333333333</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="82">
+      <c r="F23" s="103"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="102">
         <f>1*(199991.48*1000)/($O$1*$O$2)</f>
         <v>3333.1913333333332</v>
       </c>
-      <c r="I23" s="83"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="87"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I23" s="103"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="110"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="69"/>
       <c r="C24" s="69"/>
@@ -4867,21 +4697,30 @@
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
     </row>
-    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -4896,9 +4735,24 @@
         <f>(B26-D26)/B26</f>
         <v>-5.9766473988439331E-2</v>
       </c>
-      <c r="J26" s="55"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>32</v>
+      </c>
+      <c r="J26" s="61">
+        <f>I26*$D$34+$G$34</f>
+        <v>6.2972099999999998</v>
+      </c>
+      <c r="N26">
+        <v>32</v>
+      </c>
+      <c r="O26" s="61">
+        <v>5.2189300000000003</v>
+      </c>
+      <c r="P26" s="61">
+        <v>0.22186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <f>(A26*B27)/B26</f>
         <v>179.19075144508673</v>
@@ -4914,9 +4768,24 @@
         <f t="shared" ref="E27:E33" si="1">(B27-D27)/B27</f>
         <v>-9.754963583815196E-3</v>
       </c>
-      <c r="J27" s="55"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>190</v>
+      </c>
+      <c r="J27" s="61">
+        <f>I27*$D$34+$G$34</f>
+        <v>35.667830000000002</v>
+      </c>
+      <c r="N27">
+        <v>190</v>
+      </c>
+      <c r="O27" s="61">
+        <v>33.292949999999998</v>
+      </c>
+      <c r="P27" s="61">
+        <v>0.35124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <f t="shared" ref="A28:A32" si="2">(A27*B28)/B27</f>
         <v>895.95375722543361</v>
@@ -4932,8 +4801,24 @@
         <f t="shared" si="1"/>
         <v>-1.3854435838151177E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>952</v>
+      </c>
+      <c r="J28" s="61">
+        <f>I28*$D$34+$G$34</f>
+        <v>177.31600999999998</v>
+      </c>
+      <c r="N28">
+        <v>952</v>
+      </c>
+      <c r="O28" s="61">
+        <v>176.44907000000001</v>
+      </c>
+      <c r="P28" s="61">
+        <v>1.82758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <f t="shared" si="2"/>
         <v>1343.9306358381505</v>
@@ -4949,8 +4834,24 @@
         <f t="shared" si="1"/>
         <v>-6.8798358381513933E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1904</v>
+      </c>
+      <c r="J29" s="61">
+        <f>I29*$D$34+$G$34</f>
+        <v>354.28328999999997</v>
+      </c>
+      <c r="N29">
+        <v>1904</v>
+      </c>
+      <c r="O29" s="61">
+        <v>366.70735999999999</v>
+      </c>
+      <c r="P29" s="61">
+        <v>4.2896599999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <f t="shared" si="2"/>
         <v>1791.9075144508672</v>
@@ -4966,8 +4867,24 @@
         <f t="shared" si="1"/>
         <v>-3.3925358381515028E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>9520</v>
+      </c>
+      <c r="J30" s="61">
+        <f>I30*$D$34+$G$34</f>
+        <v>1770.02153</v>
+      </c>
+      <c r="N30">
+        <v>9520</v>
+      </c>
+      <c r="O30" s="61">
+        <v>1744.8535899999999</v>
+      </c>
+      <c r="P30" s="61">
+        <v>14.3483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <f t="shared" si="2"/>
         <v>8959.5375722543376</v>
@@ -4983,8 +4900,24 @@
         <f t="shared" si="1"/>
         <v>4.9769841618485771E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>19040</v>
+      </c>
+      <c r="J31" s="61">
+        <f>I31*$D$34+$G$34</f>
+        <v>3539.6943300000003</v>
+      </c>
+      <c r="N31">
+        <v>19040</v>
+      </c>
+      <c r="O31" s="61">
+        <v>3510.4355700000001</v>
+      </c>
+      <c r="P31" s="61">
+        <v>26.96321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <f t="shared" si="2"/>
         <v>17919.075144508675</v>
@@ -5001,7 +4934,7 @@
         <v>6.0231741618476916E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>25000</v>
       </c>
@@ -5017,7 +4950,7 @@
         <v>-4.0152900152099321E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="58" t="s">
         <v>58</v>
       </c>
@@ -5039,8 +4972,29 @@
       <c r="G34" s="60">
         <v>0.34872999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M34" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="O34" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" s="59">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="Q34" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="R34" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="S34" s="60">
+        <v>2.2370000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B35" s="63" t="s">
         <v>64</v>
       </c>
@@ -5050,66 +5004,167 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H36" s="74">
+        <f>(J36-S34)/P34</f>
+        <v>16283.340575774035</v>
+      </c>
+      <c r="I36" s="65">
+        <f>J36*60</f>
+        <v>180000</v>
+      </c>
+      <c r="J36">
+        <v>3000</v>
+      </c>
+      <c r="K36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H37" s="74">
+        <v>16279</v>
+      </c>
+      <c r="I37">
+        <v>180000</v>
+      </c>
+      <c r="J37" s="55">
+        <f>1.8245*1000/(37/60)</f>
+        <v>2958.6486486486483</v>
+      </c>
+      <c r="K37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E38" s="71"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>32</v>
-      </c>
-      <c r="D39" s="61">
-        <f t="shared" ref="D39:D44" si="3">A39*$D$34+$G$34</f>
-        <v>6.2972099999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>190</v>
-      </c>
-      <c r="D40" s="61">
-        <f t="shared" si="3"/>
-        <v>35.667830000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>952</v>
-      </c>
-      <c r="D41" s="61">
-        <f t="shared" si="3"/>
-        <v>177.31600999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1904</v>
-      </c>
-      <c r="D42" s="61">
-        <f t="shared" si="3"/>
-        <v>354.28328999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>9520</v>
-      </c>
-      <c r="D43" s="61">
-        <f t="shared" si="3"/>
-        <v>1770.02153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>19040</v>
-      </c>
-      <c r="D44" s="61">
-        <f t="shared" si="3"/>
-        <v>3539.6943300000003</v>
+      <c r="J38" s="55">
+        <f>1.9781*1000/(40/60)</f>
+        <v>2967.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J39" s="55">
+        <f>1.8915*1000/(38/60)</f>
+        <v>2986.5789473684213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J40" s="55">
+        <f>1.9894*1000/(40/60)</f>
+        <v>2984.1000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J41" s="55">
+        <f>1.9725*1000/(39/60)</f>
+        <v>3034.6153846153843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J42" s="55">
+        <f>1.8824*1000/(38/60)</f>
+        <v>2972.2105263157896</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J43" s="61">
+        <f>SUM(J37:J42)/6</f>
+        <v>2983.8839178247072</v>
+      </c>
+      <c r="K43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J44" s="61">
+        <f>(J36-J43)/J36*100</f>
+        <v>0.53720273917642769</v>
+      </c>
+      <c r="K44" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:D4"/>
@@ -5126,66 +5181,6 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5198,16 +5193,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5223,16 +5218,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5254,7 +5249,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -5324,7 +5319,7 @@
       <selection activeCell="G1" sqref="G1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">

--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -653,7 +653,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="108">
   <si>
     <t>uL/h</t>
   </si>
@@ -952,18 +952,126 @@
   <si>
     <t>Caudal máximo</t>
   </si>
+  <si>
+    <t>C=</t>
+  </si>
+  <si>
+    <t>Q/f</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(uL)</t>
+    </r>
+  </si>
+  <si>
+    <t>A (uL)</t>
+  </si>
+  <si>
+    <t>C (1/mm)</t>
+  </si>
+  <si>
+    <t>uL</t>
+  </si>
+  <si>
+    <t>1/mm</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="175" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,6 +1102,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1595,7 +1717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1779,10 +1901,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1799,11 +1933,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1823,66 +2005,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1892,12 +2020,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2126,11 +2259,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92474176"/>
-        <c:axId val="92474752"/>
+        <c:axId val="75155136"/>
+        <c:axId val="75156864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92474176"/>
+        <c:axId val="75155136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,12 +2273,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92474752"/>
+        <c:crossAx val="75156864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92474752"/>
+        <c:axId val="75156864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92474176"/>
+        <c:crossAx val="75155136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2184,13 +2317,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>57151</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>462539</xdr:colOff>
+          <xdr:colOff>466725</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2231,9 +2364,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>186854</xdr:rowOff>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2963,47 +3096,47 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="53">
         <v>16</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="76"/>
+      <c r="E8" s="78"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="84"/>
+      <c r="I8" s="80"/>
       <c r="J8">
         <v>25</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="K8" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="84"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="54">
         <v>200</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="82"/>
       <c r="F9">
         <f>F8*B8</f>
         <v>0</v>
@@ -3011,31 +3144,31 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="84"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="55">
         <f>C10*J8</f>
         <v>1272.3724999999999</v>
       </c>
-      <c r="K9" s="84" t="s">
+      <c r="K9" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="84"/>
+      <c r="L9" s="80"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="54">
         <v>50.8949</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="82"/>
       <c r="J10" s="55">
         <f>J9*C9*C8/60</f>
         <v>67859.866666666669</v>
@@ -3046,31 +3179,31 @@
       <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="54">
         <v>8</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="84"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="57">
         <f>C8*C9*C10/C11</f>
         <v>20357.96</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="78"/>
+      <c r="E12" s="82"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3101,6 +3234,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
@@ -3109,12 +3248,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
@@ -3165,39 +3298,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="85" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="85" t="s">
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="85" t="s">
+      <c r="I1" s="106"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="85" t="s">
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="85" t="s">
+      <c r="O1" s="106"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="87"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="107"/>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -3209,7 +3342,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
+      <c r="A2" s="112"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3346,216 +3479,216 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="101"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="93"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="98"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="96"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="101"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="93"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="98"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="96"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="101"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="96"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="101"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="107"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="95"/>
     </row>
     <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="104"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="89"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="85" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="85" t="s">
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="85" t="s">
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="85" t="s">
+      <c r="L13" s="106"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="86"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="85" t="s">
+      <c r="O13" s="106"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="86"/>
-      <c r="S13" s="87"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="107"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
@@ -3683,213 +3816,237 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="101"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="93"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="98"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="96"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="101"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="93"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="98"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="96"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="101"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="96"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="101"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="107"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="95"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="110"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:D16"/>
@@ -3914,62 +4071,38 @@
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3979,10 +4112,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,40 +4134,40 @@
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="111" t="s">
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="111" t="s">
+      <c r="F1" s="114"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="111" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="115" t="s">
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="76" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="67">
@@ -4043,10 +4176,27 @@
       <c r="P1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="67"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
+      <c r="Q1" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="112"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4092,8 +4242,21 @@
       <c r="P2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S2" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2">
+        <f>P34</f>
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -4141,32 +4304,45 @@
         <f>L3*1000</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="S3" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="117">
+        <f>U2/60</f>
+        <v>3.0683333333333335E-3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="91">
+      <c r="B4" s="96">
         <f>36.2/7.05</f>
         <v>5.1347517730496461</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="91">
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="96">
         <f>39/1.16</f>
         <v>33.620689655172413</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="91">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="96">
         <f>195/1.09</f>
         <v>178.89908256880733</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="63" t="s">
         <v>91</v>
       </c>
@@ -4181,29 +4357,33 @@
       </c>
       <c r="R4" s="72"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="91">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="109"/>
+      <c r="B5" s="96">
         <f>37.9/7.11</f>
         <v>5.3305203938115326</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="91">
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="96">
         <f>38.6/1.17</f>
         <v>32.991452991452995</v>
       </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="91">
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="96">
         <f>194/1.11</f>
         <v>174.77477477477476</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5">
+        <f>'Flow Rate'!C16</f>
+        <v>21610</v>
+      </c>
       <c r="P5" s="65" t="s">
         <v>89</v>
       </c>
@@ -4211,194 +4391,262 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="91">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="109"/>
+      <c r="B6" s="96">
         <f>37/7.03</f>
         <v>5.2631578947368416</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="91">
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="96">
         <f>38.2/1.16</f>
         <v>32.931034482758626</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="91">
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="96">
         <f>194.3/1.1</f>
         <v>176.63636363636363</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="91">
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="101"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="109"/>
+      <c r="B7" s="96">
         <f>36/6.48</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="91">
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="96">
         <f>38/1.15</f>
         <v>33.04347826086957</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="91">
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="96">
         <f>192.4/1.08</f>
         <v>178.14814814814815</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91">
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="98"/>
+      <c r="O7" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" s="103"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="109"/>
+      <c r="B8" s="96">
         <f>32.8/6.39</f>
         <v>5.1330203442879494</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="91">
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="96">
         <f>38.1/1.14</f>
         <v>33.421052631578952</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="91">
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="96">
         <f>191.8/1.09</f>
         <v>175.96330275229357</v>
       </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91">
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
+      <c r="P8" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="T8" s="116" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="110"/>
+      <c r="B9" s="96">
         <f>35.5/7.25</f>
         <v>4.8965517241379306</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="91">
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="96">
         <f>37.8/1.12</f>
         <v>33.749999999999993</v>
       </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="91">
+      <c r="F9" s="97"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="96">
         <f>191.7/1.1</f>
         <v>174.27272727272725</v>
       </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I9" s="97"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="101"/>
+      <c r="O9" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="103"/>
+      <c r="R9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="120"/>
+      <c r="T9" s="118">
+        <v>3000</v>
+      </c>
+      <c r="U9" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="V9" s="120"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="105" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="105" t="s">
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="105" t="s">
+      <c r="I10" s="94"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="106"/>
-      <c r="M10" s="107"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
+      <c r="P10" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="117">
+        <f>U3</f>
+        <v>3.0683333333333335E-3</v>
+      </c>
+      <c r="T10" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10">
+        <f>N5</f>
+        <v>21610</v>
+      </c>
+      <c r="V10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="102">
+      <c r="B11" s="87">
         <f>(336.12*1000)/($O$1*$O$2)</f>
         <v>5.6020000000000003</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="102">
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="87">
         <f>(1995.71*1000)/($O$1*$O$2)</f>
         <v>33.261833333333335</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="102">
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="87">
         <f>(9999.6*1000)/($O$1*$O$2)</f>
         <v>166.66</v>
       </c>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
+      <c r="O11" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="55">
+        <f>T9/(S10*U10)*1000</f>
+        <v>45244.307951863069</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>107</v>
+      </c>
       <c r="S11" s="61"/>
       <c r="T11" s="61"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="111" t="s">
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="111" t="s">
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="85" t="s">
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="87"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="107"/>
       <c r="S13" s="61"/>
       <c r="T13" s="61"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="112"/>
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4436,7 +4684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4485,202 +4733,202 @@
         <v>4645.7333333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B16" s="96">
         <f>407.7/1.1</f>
         <v>370.63636363636357</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="91">
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="96">
         <f>1804.7/1.03</f>
         <v>1752.1359223300972</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="91">
+      <c r="F16" s="97"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="96">
         <f>1796.1/(31/60)</f>
         <v>3476.3225806451605</v>
       </c>
-      <c r="I16" s="92"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="101"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91">
+      <c r="A17" s="109"/>
+      <c r="B17" s="96">
         <f>401.3/1.09</f>
         <v>368.16513761467888</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="91">
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="96">
         <f>1744/1.01</f>
         <v>1726.7326732673266</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="91">
+      <c r="F17" s="97"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="96">
         <f>1690.7/(29/60)</f>
         <v>3498</v>
       </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="93"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="98"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="91">
+      <c r="A18" s="109"/>
+      <c r="B18" s="96">
         <f>413.2/1.12</f>
         <v>368.92857142857139</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="91">
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="96">
         <f>1786/1.02</f>
         <v>1750.9803921568628</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="91">
+      <c r="F18" s="97"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="96">
         <f>1838/(31/60)</f>
         <v>3557.4193548387093</v>
       </c>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="96"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="101"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="91">
+      <c r="A19" s="109"/>
+      <c r="B19" s="96">
         <f>406.3/1.11</f>
         <v>366.03603603603602</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="91">
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="96">
         <f>1801.7/1.02</f>
         <v>1766.372549019608</v>
       </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="91">
+      <c r="F19" s="97"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="96">
         <f>1751/(30/60)</f>
         <v>3502</v>
       </c>
-      <c r="I19" s="92"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="93"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="98"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91">
+      <c r="A20" s="109"/>
+      <c r="B20" s="96">
         <f>419.5/1.14</f>
         <v>367.98245614035091</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="91">
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="96">
         <f>1738.2/1</f>
         <v>1738.2</v>
       </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="91">
+      <c r="F20" s="97"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="96">
         <f>1933.9/(33/60)</f>
         <v>3516.181818181818</v>
       </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="96"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="101"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91">
+      <c r="A21" s="110"/>
+      <c r="B21" s="96">
         <f>405.1/1.13</f>
         <v>358.49557522123899</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="91">
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="96">
         <f>1734.7/1</f>
         <v>1734.7</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="91">
+      <c r="F21" s="97"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="96">
         <f>1697.8/(29/60)</f>
         <v>3512.6896551724135</v>
       </c>
-      <c r="I21" s="92"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="101"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="105" t="s">
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="105" t="s">
+      <c r="F22" s="94"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="105" t="s">
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="106"/>
-      <c r="M22" s="107"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="95"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="102">
+      <c r="B23" s="87">
         <f>(19999.15*1000)/($O$1*$O$2)</f>
         <v>333.31916666666666</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="102">
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="87">
         <f>(99995.75*1000)/($O$1*$O$2)</f>
         <v>1666.5958333333333</v>
       </c>
-      <c r="F23" s="103"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="102">
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="87">
         <f>1*(199991.48*1000)/($O$1*$O$2)</f>
         <v>3333.1913333333332</v>
       </c>
-      <c r="I23" s="103"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="110"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="92"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4704,10 +4952,10 @@
       <c r="B25" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="114" t="s">
+      <c r="E25" s="75" t="s">
         <v>78</v>
       </c>
       <c r="N25" s="68" t="s">
@@ -4739,7 +4987,7 @@
         <v>32</v>
       </c>
       <c r="J26" s="61">
-        <f>I26*$D$34+$G$34</f>
+        <f t="shared" ref="J26:J31" si="1">I26*$D$34+$G$34</f>
         <v>6.2972099999999998</v>
       </c>
       <c r="N26">
@@ -4765,14 +5013,14 @@
         <v>33.658498786127176</v>
       </c>
       <c r="E27" s="70">
-        <f t="shared" ref="E27:E33" si="1">(B27-D27)/B27</f>
+        <f t="shared" ref="E27:E33" si="2">(B27-D27)/B27</f>
         <v>-9.754963583815196E-3</v>
       </c>
       <c r="I27">
         <v>190</v>
       </c>
       <c r="J27" s="61">
-        <f>I27*$D$34+$G$34</f>
+        <f t="shared" si="1"/>
         <v>35.667830000000002</v>
       </c>
       <c r="N27">
@@ -4787,7 +5035,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
-        <f t="shared" ref="A28:A32" si="2">(A27*B28)/B27</f>
+        <f t="shared" ref="A28:A32" si="3">(A27*B28)/B27</f>
         <v>895.95375722543361</v>
       </c>
       <c r="B28" s="61">
@@ -4798,14 +5046,14 @@
         <v>166.89757393063584</v>
       </c>
       <c r="E28" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3854435838151177E-3</v>
       </c>
       <c r="I28">
         <v>952</v>
       </c>
       <c r="J28" s="61">
-        <f>I28*$D$34+$G$34</f>
+        <f t="shared" si="1"/>
         <v>177.31600999999998</v>
       </c>
       <c r="N28">
@@ -4820,7 +5068,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1343.9306358381505</v>
       </c>
       <c r="B29" s="61">
@@ -4831,14 +5079,14 @@
         <v>250.17199589595378</v>
       </c>
       <c r="E29" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.8798358381513933E-4</v>
       </c>
       <c r="I29">
         <v>1904</v>
       </c>
       <c r="J29" s="61">
-        <f>I29*$D$34+$G$34</f>
+        <f t="shared" si="1"/>
         <v>354.28328999999997</v>
       </c>
       <c r="N29">
@@ -4853,7 +5101,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1791.9075144508672</v>
       </c>
       <c r="B30" s="61">
@@ -4864,14 +5112,14 @@
         <v>333.4464178612717</v>
       </c>
       <c r="E30" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.3925358381515028E-4</v>
       </c>
       <c r="I30">
         <v>9520</v>
       </c>
       <c r="J30" s="61">
-        <f>I30*$D$34+$G$34</f>
+        <f t="shared" si="1"/>
         <v>1770.02153</v>
       </c>
       <c r="N30">
@@ -4886,7 +5134,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8959.5375722543376</v>
       </c>
       <c r="B31" s="61">
@@ -4897,14 +5145,14 @@
         <v>1665.8371693063586</v>
       </c>
       <c r="E31" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9769841618485771E-4</v>
       </c>
       <c r="I31">
         <v>19040</v>
       </c>
       <c r="J31" s="61">
-        <f>I31*$D$34+$G$34</f>
+        <f t="shared" si="1"/>
         <v>3539.6943300000003</v>
       </c>
       <c r="N31">
@@ -4919,7 +5167,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17919.075144508675</v>
       </c>
       <c r="B32" s="61">
@@ -4930,7 +5178,7 @@
         <v>3331.3256086127176</v>
       </c>
       <c r="E32" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0231741618476916E-4</v>
       </c>
     </row>
@@ -4946,8 +5194,26 @@
         <v>4647.5987299999997</v>
       </c>
       <c r="E33" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.0152900152099321E-4</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="L33" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="65" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5104,29 +5370,48 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
+  <mergeCells count="79">
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:D16"/>
@@ -5143,44 +5428,28 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5225,9 +5494,9 @@
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -383,6 +383,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="P11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+45251,7 dio calculo manual y se cargo en el software</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B16" authorId="0">
       <text>
         <r>
@@ -1069,7 +1093,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="175" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1907,16 +1931,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1933,6 +1962,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1943,6 +2029,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1951,66 +2046,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2020,21 +2055,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -2057,7 +2081,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="169" formatCode="0.000"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2259,11 +2283,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75155136"/>
-        <c:axId val="75156864"/>
+        <c:axId val="151045824"/>
+        <c:axId val="151047552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75155136"/>
+        <c:axId val="151045824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,12 +2297,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75156864"/>
+        <c:crossAx val="151047552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75156864"/>
+        <c:axId val="151047552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75155136"/>
+        <c:crossAx val="151045824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2468,7 +2492,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2760,10 +2784,10 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -2781,7 +2805,7 @@
     <col min="14" max="14" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -3096,47 +3120,47 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="53">
         <v>16</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="83"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="80"/>
+      <c r="I8" s="91"/>
       <c r="J8">
         <v>25</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="80"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="54">
         <v>200</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="82"/>
+      <c r="E9" s="85"/>
       <c r="F9">
         <f>F8*B8</f>
         <v>0</v>
@@ -3144,31 +3168,31 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="80"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="55">
         <f>C10*J8</f>
         <v>1272.3724999999999</v>
       </c>
-      <c r="K9" s="80" t="s">
+      <c r="K9" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="80"/>
+      <c r="L9" s="91"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="54">
         <v>50.8949</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="82"/>
+      <c r="E10" s="85"/>
       <c r="J10" s="55">
         <f>J9*C9*C8/60</f>
         <v>67859.866666666669</v>
@@ -3179,31 +3203,31 @@
       <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="54">
         <v>8</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="84"/>
+      <c r="E11" s="87"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="86"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="57">
         <f>C8*C9*C10/C11</f>
         <v>20357.96</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="82"/>
+      <c r="E12" s="85"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3234,12 +3258,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
@@ -3248,6 +3266,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
@@ -3266,7 +3290,7 @@
       <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -3298,39 +3322,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="105" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="105" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="105" t="s">
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="105" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="105" t="s">
+      <c r="O1" s="93"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="106"/>
-      <c r="S1" s="107"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="94"/>
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -3342,7 +3366,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
+      <c r="A2" s="105"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -3479,216 +3503,216 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="101"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="103"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="98"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="100"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="101"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="103"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="98"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="100"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="101"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="103"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="101"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="103"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="95"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="114"/>
     </row>
     <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="89"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="111"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="105" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="105" t="s">
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="105" t="s">
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="105" t="s">
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="106"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="105" t="s">
+      <c r="O13" s="93"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="106"/>
-      <c r="S13" s="107"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="94"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
@@ -3816,181 +3840,269 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="101"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="103"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="98"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="100"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="101"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="103"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="98"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="100"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="101"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="103"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="101"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="103"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="95"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="114"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="92"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:D4"/>
@@ -4015,94 +4127,6 @@
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4115,10 +4139,10 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -4144,29 +4168,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="113" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="114"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="113" t="s">
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="113" t="s">
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="120"/>
       <c r="N1" s="76" t="s">
         <v>8</v>
       </c>
@@ -4196,7 +4220,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
+      <c r="A2" s="105"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4310,7 +4334,7 @@
       <c r="T3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="117">
+      <c r="U3" s="78">
         <f>U2/60</f>
         <v>3.0683333333333335E-3</v>
       </c>
@@ -4319,30 +4343,30 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="96">
+      <c r="B4" s="98">
         <f>36.2/7.05</f>
         <v>5.1347517730496461</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="96">
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="98">
         <f>39/1.16</f>
         <v>33.620689655172413</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="96">
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="98">
         <f>195/1.09</f>
         <v>178.89908256880733</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="101"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="103"/>
       <c r="N4" s="63" t="s">
         <v>91</v>
       </c>
@@ -4358,28 +4382,28 @@
       <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="96">
+      <c r="A5" s="96"/>
+      <c r="B5" s="98">
         <f>37.9/7.11</f>
         <v>5.3305203938115326</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="96">
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="98">
         <f>38.6/1.17</f>
         <v>32.991452991452995</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="96">
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="98">
         <f>194/1.11</f>
         <v>174.77477477477476</v>
       </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="98"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="100"/>
       <c r="N5">
         <f>'Flow Rate'!C16</f>
         <v>21610</v>
@@ -4392,176 +4416,176 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="96">
+      <c r="A6" s="96"/>
+      <c r="B6" s="98">
         <f>37/7.03</f>
         <v>5.2631578947368416</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="96">
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98">
         <f>38.2/1.16</f>
         <v>32.931034482758626</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="96">
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="98">
         <f>194.3/1.1</f>
         <v>176.63636363636363</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="96">
+      <c r="A7" s="96"/>
+      <c r="B7" s="98">
         <f>36/6.48</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="96">
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="98">
         <f>38/1.15</f>
         <v>33.04347826086957</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="96">
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="98">
         <f>192.4/1.08</f>
         <v>178.14814814814815</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="98"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="100"/>
       <c r="O7" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="P7" s="103" t="s">
+      <c r="P7" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="Q7" s="103"/>
+      <c r="Q7" s="107"/>
       <c r="R7" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="103" t="s">
+      <c r="S7" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="103"/>
+      <c r="T7" s="107"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="96">
+      <c r="A8" s="96"/>
+      <c r="B8" s="98">
         <f>32.8/6.39</f>
         <v>5.1330203442879494</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="96">
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="98">
         <f>38.1/1.14</f>
         <v>33.421052631578952</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="96">
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="98">
         <f>191.8/1.09</f>
         <v>175.96330275229357</v>
       </c>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="101"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
       <c r="P8" s="65" t="s">
         <v>96</v>
       </c>
       <c r="Q8" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="116" t="s">
+      <c r="S8" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="116" t="s">
+      <c r="T8" s="77" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="110"/>
-      <c r="B9" s="96">
+      <c r="A9" s="97"/>
+      <c r="B9" s="98">
         <f>35.5/7.25</f>
         <v>4.8965517241379306</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="96">
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="98">
         <f>37.8/1.12</f>
         <v>33.749999999999993</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="96">
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="98">
         <f>191.7/1.1</f>
         <v>174.27272727272725</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="101"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="103"/>
       <c r="O9" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="103" t="s">
+      <c r="P9" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="103"/>
+      <c r="Q9" s="107"/>
       <c r="R9" t="s">
         <v>60</v>
       </c>
-      <c r="S9" s="120"/>
-      <c r="T9" s="118">
+      <c r="S9" s="81"/>
+      <c r="T9" s="79">
         <v>3000</v>
       </c>
-      <c r="U9" s="119" t="s">
+      <c r="U9" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="V9" s="120"/>
+      <c r="V9" s="81"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="93" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="93" t="s">
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="93" t="s">
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="94"/>
-      <c r="M10" s="95"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="114"/>
       <c r="P10" s="65" t="s">
         <v>103</v>
       </c>
       <c r="Q10" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="117">
+      <c r="S10" s="78">
         <f>U3</f>
         <v>3.0683333333333335E-3</v>
       </c>
@@ -4580,27 +4604,27 @@
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="87">
+      <c r="B11" s="109">
         <f>(336.12*1000)/($O$1*$O$2)</f>
         <v>5.6020000000000003</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="87">
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="109">
         <f>(1995.71*1000)/($O$1*$O$2)</f>
         <v>33.261833333333335</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="87">
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="109">
         <f>(9999.6*1000)/($O$1*$O$2)</f>
         <v>166.66</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="111"/>
       <c r="O11" s="63" t="s">
         <v>101</v>
       </c>
@@ -4619,34 +4643,34 @@
       <c r="T12" s="61"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="113" t="s">
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="114"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="113" t="s">
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="105" t="s">
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
       <c r="S13" s="61"/>
       <c r="T13" s="61"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4734,201 +4758,201 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B16" s="98">
         <f>407.7/1.1</f>
         <v>370.63636363636357</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="96">
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="98">
         <f>1804.7/1.03</f>
         <v>1752.1359223300972</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="96">
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="98">
         <f>1796.1/(31/60)</f>
         <v>3476.3225806451605</v>
       </c>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="103"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="96">
+      <c r="A17" s="96"/>
+      <c r="B17" s="98">
         <f>401.3/1.09</f>
         <v>368.16513761467888</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="96">
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="98">
         <f>1744/1.01</f>
         <v>1726.7326732673266</v>
       </c>
-      <c r="F17" s="97"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="96">
+      <c r="F17" s="99"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="98">
         <f>1690.7/(29/60)</f>
         <v>3498</v>
       </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="100"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="96">
+      <c r="A18" s="96"/>
+      <c r="B18" s="98">
         <f>413.2/1.12</f>
         <v>368.92857142857139</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="96">
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="98">
         <f>1786/1.02</f>
         <v>1750.9803921568628</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="96">
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="98">
         <f>1838/(31/60)</f>
         <v>3557.4193548387093</v>
       </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="103"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="96">
+      <c r="A19" s="96"/>
+      <c r="B19" s="98">
         <f>406.3/1.11</f>
         <v>366.03603603603602</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="96">
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="98">
         <f>1801.7/1.02</f>
         <v>1766.372549019608</v>
       </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="96">
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="98">
         <f>1751/(30/60)</f>
         <v>3502</v>
       </c>
-      <c r="I19" s="97"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="96">
+      <c r="A20" s="96"/>
+      <c r="B20" s="98">
         <f>419.5/1.14</f>
         <v>367.98245614035091</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="96">
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="98">
         <f>1738.2/1</f>
         <v>1738.2</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="96">
+      <c r="F20" s="99"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="98">
         <f>1933.9/(33/60)</f>
         <v>3516.181818181818</v>
       </c>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="103"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="96">
+      <c r="A21" s="97"/>
+      <c r="B21" s="98">
         <f>405.1/1.13</f>
         <v>358.49557522123899</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="96">
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="98">
         <f>1734.7/1</f>
         <v>1734.7</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="96">
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="98">
         <f>1697.8/(29/60)</f>
         <v>3512.6896551724135</v>
       </c>
-      <c r="I21" s="97"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="103"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="93" t="s">
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="93" t="s">
+      <c r="F22" s="113"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="93" t="s">
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="94"/>
-      <c r="M22" s="95"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="114"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="87">
+      <c r="B23" s="109">
         <f>(19999.15*1000)/($O$1*$O$2)</f>
         <v>333.31916666666666</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="87">
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="109">
         <f>(99995.75*1000)/($O$1*$O$2)</f>
         <v>1666.5958333333333</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="87">
+      <c r="F23" s="110"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="109">
         <f>1*(199991.48*1000)/($O$1*$O$2)</f>
         <v>3333.1913333333332</v>
       </c>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="117"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -5371,6 +5395,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="P9:Q9"/>
@@ -5387,69 +5474,6 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5518,7 +5542,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -5588,7 +5612,7 @@
       <selection activeCell="G1" sqref="G1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">

--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -4,14 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Rate" sheetId="5" r:id="rId1"/>
-    <sheet name="3mL Bomba 1" sheetId="7" r:id="rId2"/>
-    <sheet name="3mL Bomba 2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
+    <sheet name="3mL Bomba 2" sheetId="4" r:id="rId2"/>
+    <sheet name="3mL Bomba 1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -104,6 +102,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>NANOMEDICINA</author>
+    <author>Lisbeth</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0">
@@ -130,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,6 +202,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="P11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+45251,7 dio calculo manual y se cargo en el software</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B16" authorId="0">
       <text>
         <r>
@@ -224,6 +247,30 @@
           </rPr>
           <t xml:space="preserve">
 20 gotas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+80 gotas</t>
         </r>
       </text>
     </comment>
@@ -251,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="0">
+    <comment ref="B34" authorId="1">
       <text>
         <r>
           <rPr>
@@ -261,6 +308,102 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Flujo (mg/min)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Frecuencia (Hz)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Flujo (mg/min)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Frecuencia (Hz)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
           <t>NANOMEDICINA:</t>
         </r>
         <r>
@@ -271,7 +414,80 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-80 gotas</t>
+teórico</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I36" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lisbeth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+mg/min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+teórico
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+experimental</t>
         </r>
       </text>
     </comment>
@@ -383,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0">
+    <comment ref="U10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +607,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NANOMEDICINA:</t>
         </r>
@@ -400,10 +616,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-45251,7 dio calculo manual y se cargo en el software</t>
+45251,7 dio calculo manual y se cargo en el software (de la calibración de la bomba 2)</t>
         </r>
       </text>
     </comment>
@@ -479,6 +695,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NANOMEDICINA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+basado en la ecuación teórica</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B34" authorId="1">
       <text>
         <r>
@@ -527,7 +767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N34" authorId="1">
+    <comment ref="M34" authorId="1">
       <text>
         <r>
           <rPr>
@@ -551,7 +791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q34" authorId="1">
+    <comment ref="P34" authorId="1">
       <text>
         <r>
           <rPr>
@@ -575,7 +815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H36" authorId="0">
+    <comment ref="H38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="1">
+    <comment ref="I38" authorId="1">
       <text>
         <r>
           <rPr>
@@ -623,7 +863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J36" authorId="0">
+    <comment ref="J38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="0">
+    <comment ref="H39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -677,7 +917,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="120">
   <si>
     <t>uL/h</t>
   </si>
@@ -939,9 +1179,6 @@
   </si>
   <si>
     <t>promedio</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>Frecuencia experimental (Hz)</t>
@@ -1083,6 +1320,67 @@
   <si>
     <t>um</t>
   </si>
+  <si>
+    <t>31/31</t>
+  </si>
+  <si>
+    <t>170/179</t>
+  </si>
+  <si>
+    <t>853/896</t>
+  </si>
+  <si>
+    <t>1707/1792</t>
+  </si>
+  <si>
+    <t>8539/8960</t>
+  </si>
+  <si>
+    <t>17079/17919</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mm)</t>
+    </r>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>% error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modo 4: </t>
+  </si>
+  <si>
+    <t>1500 uL</t>
+  </si>
+  <si>
+    <t>30 s</t>
+  </si>
+  <si>
+    <t>Repeticiones (mg)</t>
+  </si>
 </sst>
 </file>
 
@@ -1095,7 +1393,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,6 +1442,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1741,7 +2052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1942,10 +2253,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1962,11 +2285,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1986,66 +2351,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2054,6 +2365,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2155,185 +2473,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$A$1:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$B$1:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.1347500000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3305199999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2631600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5555599999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1330200000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8965500000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.620690000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.99145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32.93103</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.043480000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.421050000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="151045824"/>
-        <c:axId val="151047552"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="151045824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151047552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="151047552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151045824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2423,36 +2562,88 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9231" name="Object 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9231"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>50802</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>114299</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>9527</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>161924</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9235" name="Object 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9235"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3120,47 +3311,47 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="83"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="53">
         <v>16</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="85"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="91"/>
+      <c r="I8" s="87"/>
       <c r="J8">
         <v>25</v>
       </c>
-      <c r="K8" s="91" t="s">
+      <c r="K8" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="91"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="54">
         <v>200</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="89"/>
       <c r="F9">
         <f>F8*B8</f>
         <v>0</v>
@@ -3168,31 +3359,31 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="91" t="s">
+      <c r="H9" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="91"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="55">
         <f>C10*J8</f>
         <v>1272.3724999999999</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="91"/>
+      <c r="L9" s="87"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="83"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="54">
         <v>50.8949</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="89"/>
       <c r="J10" s="55">
         <f>J9*C9*C8/60</f>
         <v>67859.866666666669</v>
@@ -3203,31 +3394,31 @@
       <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="54">
         <v>8</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="91"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="89"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="57">
         <f>C8*C9*C10/C11</f>
         <v>20357.96</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="89"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3258,6 +3449,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
@@ -3266,12 +3463,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
@@ -3284,862 +3475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="93"/>
-      <c r="S1" s="94"/>
-      <c r="T1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2">
-        <v>1000</v>
-      </c>
-      <c r="V2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>346</v>
-      </c>
-      <c r="C3" s="2">
-        <f>B3/($U$1*$U$2)</f>
-        <v>5.7666666666666665E-3</v>
-      </c>
-      <c r="D3" s="3">
-        <f>C3*1000</f>
-        <v>5.7666666666666666</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="2">
-        <f>E3/($U$1*$U$2)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <f>F3*1000</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="2">
-        <f>H3/($U$1*$U$2)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J3" s="3">
-        <f>I3*1000</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="L3" s="2">
-        <f>K3/($U$1*$U$2)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="M3" s="3">
-        <f>L3*1000</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="N3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="O3" s="2">
-        <f>N3/($U$1*$U$2)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P3" s="3">
-        <f>O3*1000</f>
-        <v>166.66666666666666</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>15000</v>
-      </c>
-      <c r="R3" s="2">
-        <f>Q3/($U$1*$U$2)</f>
-        <v>0.25</v>
-      </c>
-      <c r="S3" s="3">
-        <f>R3*1000</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="103"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="100"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="103"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="100"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="103"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="103"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="114"/>
-    </row>
-    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="111"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="93"/>
-      <c r="S13" s="94"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="105"/>
-      <c r="B14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C15" s="2">
-        <f>B15/($U$1*$U$2)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15*1000</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="E15" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F15" s="2">
-        <f>E15/($U$1*$U$2)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G15" s="3">
-        <f>F15*1000</f>
-        <v>833.33333333333337</v>
-      </c>
-      <c r="H15" s="1">
-        <v>100000</v>
-      </c>
-      <c r="I15" s="2">
-        <f>H15/($U$1*$U$2)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="J15" s="3">
-        <f>I15*1000</f>
-        <v>1666.6666666666667</v>
-      </c>
-      <c r="K15" s="1">
-        <v>150000</v>
-      </c>
-      <c r="L15" s="2">
-        <f>K15/($U$1*$U$2)</f>
-        <v>2.5</v>
-      </c>
-      <c r="M15" s="3">
-        <f>L15*1000</f>
-        <v>2500</v>
-      </c>
-      <c r="N15" s="1">
-        <v>200000</v>
-      </c>
-      <c r="O15" s="2">
-        <f>N15/($U$1*$U$2)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="P15" s="3">
-        <f>O15*1000</f>
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>278744</v>
-      </c>
-      <c r="R15" s="2">
-        <f>Q15/($U$1*$U$2)</f>
-        <v>4.6457333333333333</v>
-      </c>
-      <c r="S15" s="3">
-        <f>R15*1000</f>
-        <v>4645.7333333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="103"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="100"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="103"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="100"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="103"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="103"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="114"/>
-    </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="117"/>
-    </row>
-  </sheetData>
-  <mergeCells count="112">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4153,7 +3492,7 @@
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -4168,26 +3507,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="120"/>
       <c r="E1" s="118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="119"/>
       <c r="G1" s="120"/>
       <c r="H1" s="118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I1" s="119"/>
       <c r="J1" s="120"/>
       <c r="K1" s="118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L1" s="119"/>
       <c r="M1" s="120"/>
@@ -4207,7 +3546,7 @@
         <v>60</v>
       </c>
       <c r="S1" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T1" s="65" t="s">
         <v>63</v>
@@ -4216,11 +3555,11 @@
         <v>62</v>
       </c>
       <c r="V1" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
+      <c r="A2" s="117"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +3606,7 @@
         <v>11</v>
       </c>
       <c r="S2" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T2" s="65" t="s">
         <v>60</v>
@@ -4329,7 +3668,7 @@
         <v>250</v>
       </c>
       <c r="S3" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T3" s="65" t="s">
         <v>60</v>
@@ -4339,210 +3678,210 @@
         <v>3.0683333333333335E-3</v>
       </c>
       <c r="V3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="98">
+      <c r="B4" s="103">
         <f>36.2/7.05</f>
         <v>5.1347517730496461</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="98">
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="103">
         <f>39/1.16</f>
         <v>33.620689655172413</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="98">
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="103">
         <f>195/1.09</f>
         <v>178.89908256880733</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="108"/>
       <c r="N4" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O4" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P4" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" s="73" t="s">
-        <v>87</v>
-      </c>
       <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="98">
+      <c r="A5" s="114"/>
+      <c r="B5" s="103">
         <f>37.9/7.11</f>
         <v>5.3305203938115326</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="98">
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="103">
         <f>38.6/1.17</f>
         <v>32.991452991452995</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="98">
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="103">
         <f>194/1.11</f>
         <v>174.77477477477476</v>
       </c>
-      <c r="I5" s="99"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="100"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
       <c r="N5">
         <f>'Flow Rate'!C16</f>
         <v>21610</v>
       </c>
       <c r="P5" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="65" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98">
+      <c r="A6" s="114"/>
+      <c r="B6" s="103">
         <f>37/7.03</f>
         <v>5.2631578947368416</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="98">
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="103">
         <f>38.2/1.16</f>
         <v>32.931034482758626</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="98">
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="103">
         <f>194.3/1.1</f>
         <v>176.63636363636363</v>
       </c>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="103"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98">
+      <c r="A7" s="114"/>
+      <c r="B7" s="103">
         <f>36/6.48</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="98">
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="103">
         <f>38/1.15</f>
         <v>33.04347826086957</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="98">
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="103">
         <f>192.4/1.08</f>
         <v>178.14814814814815</v>
       </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="100"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="105"/>
       <c r="O7" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="P7" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="109"/>
       <c r="R7" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="T7" s="107"/>
+      <c r="S7" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="109"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="98">
+      <c r="A8" s="114"/>
+      <c r="B8" s="103">
         <f>32.8/6.39</f>
         <v>5.1330203442879494</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="98">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="103">
         <f>38.1/1.14</f>
         <v>33.421052631578952</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="98">
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="103">
         <f>191.8/1.09</f>
         <v>175.96330275229357</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="108"/>
       <c r="P8" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="65" t="s">
-        <v>97</v>
-      </c>
       <c r="S8" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T8" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98">
+      <c r="A9" s="115"/>
+      <c r="B9" s="103">
         <f>35.5/7.25</f>
         <v>4.8965517241379306</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="98">
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="103">
         <f>37.8/1.12</f>
         <v>33.749999999999993</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="98">
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="103">
         <f>191.7/1.1</f>
         <v>174.27272727272725</v>
       </c>
-      <c r="I9" s="99"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="103"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="108"/>
       <c r="O9" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q9" s="107"/>
+      <c r="Q9" s="109"/>
       <c r="R9" t="s">
         <v>60</v>
       </c>
@@ -4551,89 +3890,89 @@
         <v>3000</v>
       </c>
       <c r="U9" s="80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V9" s="81"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="112" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="112" t="s">
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="112" t="s">
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="113"/>
-      <c r="M10" s="114"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
       <c r="P10" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="65" t="s">
         <v>103</v>
-      </c>
-      <c r="Q10" s="65" t="s">
-        <v>104</v>
       </c>
       <c r="S10" s="78">
         <f>U3</f>
         <v>3.0683333333333335E-3</v>
       </c>
       <c r="T10" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U10">
         <f>N5</f>
         <v>21610</v>
       </c>
       <c r="V10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="109">
+      <c r="B11" s="94">
         <f>(336.12*1000)/($O$1*$O$2)</f>
         <v>5.6020000000000003</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="109">
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="94">
         <f>(1995.71*1000)/($O$1*$O$2)</f>
         <v>33.261833333333335</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="109">
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="94">
         <f>(9999.6*1000)/($O$1*$O$2)</f>
         <v>166.66</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="111"/>
-      <c r="O11" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="55">
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="96"/>
+      <c r="O11" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="122">
         <f>T9/(S10*U10)*1000</f>
         <v>45244.307951863069</v>
       </c>
-      <c r="Q11" t="s">
-        <v>107</v>
+      <c r="Q11" s="60" t="s">
+        <v>106</v>
       </c>
       <c r="S11" s="61"/>
       <c r="T11" s="61"/>
@@ -4643,34 +3982,34 @@
       <c r="T12" s="61"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="116" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="119"/>
       <c r="D13" s="120"/>
       <c r="E13" s="118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="119"/>
       <c r="G13" s="120"/>
       <c r="H13" s="118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="119"/>
       <c r="J13" s="120"/>
-      <c r="K13" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="94"/>
+      <c r="K13" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="111"/>
+      <c r="M13" s="112"/>
       <c r="S13" s="61"/>
       <c r="T13" s="61"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="105"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4758,201 +4097,201 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="103">
         <f>407.7/1.1</f>
         <v>370.63636363636357</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="98">
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="103">
         <f>1804.7/1.03</f>
         <v>1752.1359223300972</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="98">
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="103">
         <f>1796.1/(31/60)</f>
         <v>3476.3225806451605</v>
       </c>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="108"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="98">
+      <c r="A17" s="114"/>
+      <c r="B17" s="103">
         <f>401.3/1.09</f>
         <v>368.16513761467888</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="98">
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="103">
         <f>1744/1.01</f>
         <v>1726.7326732673266</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="98">
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="103">
         <f>1690.7/(29/60)</f>
         <v>3498</v>
       </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="105"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="98">
+      <c r="A18" s="114"/>
+      <c r="B18" s="103">
         <f>413.2/1.12</f>
         <v>368.92857142857139</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="98">
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="103">
         <f>1786/1.02</f>
         <v>1750.9803921568628</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="98">
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="103">
         <f>1838/(31/60)</f>
         <v>3557.4193548387093</v>
       </c>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="108"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="98">
+      <c r="A19" s="114"/>
+      <c r="B19" s="103">
         <f>406.3/1.11</f>
         <v>366.03603603603602</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="98">
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="103">
         <f>1801.7/1.02</f>
         <v>1766.372549019608</v>
       </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="98">
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="103">
         <f>1751/(30/60)</f>
         <v>3502</v>
       </c>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="100"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="105"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="98">
+      <c r="A20" s="114"/>
+      <c r="B20" s="103">
         <f>419.5/1.14</f>
         <v>367.98245614035091</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="98">
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="103">
         <f>1738.2/1</f>
         <v>1738.2</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="98">
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="103">
         <f>1933.9/(33/60)</f>
         <v>3516.181818181818</v>
       </c>
-      <c r="I20" s="99"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98">
+      <c r="A21" s="115"/>
+      <c r="B21" s="103">
         <f>405.1/1.13</f>
         <v>358.49557522123899</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="98">
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="103">
         <f>1734.7/1</f>
         <v>1734.7</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="98">
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="103">
         <f>1697.8/(29/60)</f>
         <v>3512.6896551724135</v>
       </c>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="103"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="112" t="s">
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="113"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="112" t="s">
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="112" t="s">
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="113"/>
-      <c r="M22" s="114"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="102"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="109">
+      <c r="B23" s="94">
         <f>(19999.15*1000)/($O$1*$O$2)</f>
         <v>333.31916666666666</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="109">
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="94">
         <f>(99995.75*1000)/($O$1*$O$2)</f>
         <v>1666.5958333333333</v>
       </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="109">
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="94">
         <f>1*(199991.48*1000)/($O$1*$O$2)</f>
         <v>3333.1913333333332</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="117"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4983,10 +4322,10 @@
         <v>78</v>
       </c>
       <c r="N25" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25" s="68" t="s">
         <v>84</v>
-      </c>
-      <c r="O25" s="68" t="s">
-        <v>85</v>
       </c>
       <c r="P25" s="66" t="s">
         <v>65</v>
@@ -5011,7 +4350,7 @@
         <v>32</v>
       </c>
       <c r="J26" s="61">
-        <f t="shared" ref="J26:J31" si="1">I26*$D$34+$G$34</f>
+        <f>I26*$D$34+$G$34</f>
         <v>6.2972099999999998</v>
       </c>
       <c r="N26">
@@ -5037,14 +4376,14 @@
         <v>33.658498786127176</v>
       </c>
       <c r="E27" s="70">
-        <f t="shared" ref="E27:E33" si="2">(B27-D27)/B27</f>
+        <f t="shared" ref="E27:E33" si="1">(B27-D27)/B27</f>
         <v>-9.754963583815196E-3</v>
       </c>
       <c r="I27">
         <v>190</v>
       </c>
       <c r="J27" s="61">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J26:J31" si="2">I27*$D$34+$G$34</f>
         <v>35.667830000000002</v>
       </c>
       <c r="N27">
@@ -5070,14 +4409,14 @@
         <v>166.89757393063584</v>
       </c>
       <c r="E28" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.3854435838151177E-3</v>
       </c>
       <c r="I28">
         <v>952</v>
       </c>
       <c r="J28" s="61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177.31600999999998</v>
       </c>
       <c r="N28">
@@ -5103,14 +4442,14 @@
         <v>250.17199589595378</v>
       </c>
       <c r="E29" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-6.8798358381513933E-4</v>
       </c>
       <c r="I29">
         <v>1904</v>
       </c>
       <c r="J29" s="61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>354.28328999999997</v>
       </c>
       <c r="N29">
@@ -5136,14 +4475,14 @@
         <v>333.4464178612717</v>
       </c>
       <c r="E30" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.3925358381515028E-4</v>
       </c>
       <c r="I30">
         <v>9520</v>
       </c>
       <c r="J30" s="61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1770.02153</v>
       </c>
       <c r="N30">
@@ -5169,14 +4508,14 @@
         <v>1665.8371693063586</v>
       </c>
       <c r="E31" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.9769841618485771E-4</v>
       </c>
       <c r="I31">
         <v>19040</v>
       </c>
       <c r="J31" s="61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3539.6943300000003</v>
       </c>
       <c r="N31">
@@ -5202,7 +4541,7 @@
         <v>3331.3256086127176</v>
       </c>
       <c r="E32" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0231741618476916E-4</v>
       </c>
     </row>
@@ -5218,26 +4557,26 @@
         <v>4647.5987299999997</v>
       </c>
       <c r="E33" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.0152900152099321E-4</v>
       </c>
+      <c r="H33" s="65" t="s">
+        <v>59</v>
+      </c>
       <c r="I33" s="65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J33" s="65" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="K33" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="65" t="s">
         <v>99</v>
-      </c>
-      <c r="L33" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="M33" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="N33" s="65" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5376,7 +4715,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J43" s="61">
+      <c r="J43" s="55">
         <f>SUM(J37:J42)/6</f>
         <v>2983.8839178247072</v>
       </c>
@@ -5385,38 +4724,111 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J44" s="61">
+      <c r="J44" s="55">
         <f>(J36-J43)/J36*100</f>
         <v>0.53720273917642769</v>
       </c>
       <c r="K44" t="s">
-        <v>83</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>116</v>
+      </c>
+      <c r="I46" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" s="123"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" s="61">
+        <v>1459.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" s="61">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J49" s="61">
+        <v>1465.8</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J50" s="61">
+        <v>1465.3</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J51" s="61">
+        <f>SUM(J47:J50)/4</f>
+        <v>1463.9</v>
+      </c>
+      <c r="K51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f>(1500-J47)/1500*100</f>
+        <v>2.7</v>
+      </c>
+      <c r="K52" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
+  <mergeCells count="80">
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:D16"/>
@@ -5433,47 +4845,28 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5534,274 +4927,1361 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="111"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="111"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="67">
+        <v>60</v>
+      </c>
+      <c r="P1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="117"/>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>5.2189300000000003</v>
-      </c>
-      <c r="C1">
-        <v>0.22186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>33.292949999999998</v>
-      </c>
-      <c r="C2">
-        <v>0.35124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2">
+        <f>O34</f>
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>364</v>
+      </c>
+      <c r="C3" s="2">
+        <f>B3/($O$1*$O$2)</f>
+        <v>6.0666666666666664E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3*1000</f>
+        <v>6.0666666666666664</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3/($O$1*$O$2)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <f>F3*1000</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3/($O$1*$O$2)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3*1000</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15000</v>
+      </c>
+      <c r="L3" s="2">
+        <f>K3/($O$1*$O$2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="3">
+        <f>L3*1000</f>
+        <v>250</v>
+      </c>
+      <c r="S3" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="78">
+        <f>U2/60</f>
+        <v>3.1016666666666666E-3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="103">
+        <f>46.6/9.39</f>
+        <v>4.9627263045793395</v>
+      </c>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="103">
+        <f>48.1/1.44</f>
+        <v>33.402777777777779</v>
+      </c>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="103">
+        <f>245.8/1.4</f>
+        <v>175.57142857142858</v>
+      </c>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="82"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="114"/>
+      <c r="B5" s="103">
+        <f>46.9/9.08</f>
+        <v>5.1651982378854626</v>
+      </c>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="103">
+        <f>48/1.43</f>
+        <v>33.566433566433567</v>
+      </c>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="103">
+        <f>245.5/1.33</f>
+        <v>184.58646616541353</v>
+      </c>
+      <c r="I5" s="104"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
+      <c r="N5">
+        <v>20381</v>
+      </c>
+      <c r="P5" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="114"/>
+      <c r="B6" s="103">
+        <f>46.6/8.53</f>
+        <v>5.4630715123094964</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="103">
+        <f>47.8/1.39</f>
+        <v>34.388489208633096</v>
+      </c>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="103">
+        <f>244.7/1.37</f>
+        <v>178.61313868613138</v>
+      </c>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="114"/>
+      <c r="B7" s="103">
+        <f>46.4/8.39</f>
+        <v>5.5303933253873652</v>
+      </c>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="103">
+        <f>47.5/1.37</f>
+        <v>34.671532846715323</v>
+      </c>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="103">
+        <f>243.4/1.32</f>
+        <v>184.39393939393938</v>
+      </c>
+      <c r="I7" s="104"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="105"/>
+      <c r="O7" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="109"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="114"/>
+      <c r="B8" s="103">
+        <f>47.8/8.44</f>
+        <v>5.6635071090047395</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="103">
+        <f>47.6/1.39</f>
+        <v>34.244604316546763</v>
+      </c>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="103">
+        <f>243.5/1.39</f>
+        <v>175.17985611510792</v>
+      </c>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="108"/>
+      <c r="P8" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="115"/>
+      <c r="B9" s="103">
+        <f>47.3/8.55</f>
+        <v>5.5321637426900576</v>
+      </c>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="103">
+        <f>47.3/1.38</f>
+        <v>34.275362318840578</v>
+      </c>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="103">
+        <f>243.9/1.33</f>
+        <v>183.38345864661653</v>
+      </c>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="108"/>
+      <c r="O9" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="109"/>
+      <c r="R9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="81"/>
+      <c r="T9" s="79">
+        <v>3000</v>
+      </c>
+      <c r="U9" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="V9" s="81"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
+      <c r="P10" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="S10" s="78">
+        <f>U3</f>
+        <v>3.1016666666666666E-3</v>
+      </c>
+      <c r="T10" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10">
+        <v>45252</v>
+      </c>
+      <c r="V10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="94">
+        <f>(363.12*1000)/($O$1*$O$2)</f>
+        <v>6.0519999999999996</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="94">
+        <f>(1990.7*1000)/($O$1*$O$2)</f>
+        <v>33.178333333333335</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="94">
+        <f>(9988.7*1000)/($O$1*$O$2)</f>
+        <v>166.47833333333332</v>
+      </c>
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="96"/>
+      <c r="O11" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="122">
+        <f>T9/(S10*U10)*1000</f>
+        <v>21374.125424222955</v>
+      </c>
+      <c r="Q11" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>176.44907000000001</v>
-      </c>
-      <c r="C3">
-        <v>1.82758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="111"/>
+      <c r="M13" s="112"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="117"/>
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>366.70735999999999</v>
-      </c>
-      <c r="C4">
-        <v>4.2896599999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1744.8535899999999</v>
-      </c>
-      <c r="C5">
-        <v>14.3483</v>
+      <c r="B15" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C15" s="2">
+        <f>B15/($O$1*$O$2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15*1000</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="2">
+        <f>E15/($O$1*$O$2)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G15" s="3">
+        <f>F15*1000</f>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="H15" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I15" s="2">
+        <f>H15/($O$1*$O$2)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J15" s="3">
+        <f>I15*1000</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="K15" s="1">
+        <v>278744</v>
+      </c>
+      <c r="L15" s="2">
+        <f>K15/($O$1*$O$2)</f>
+        <v>4.6457333333333333</v>
+      </c>
+      <c r="M15" s="3">
+        <f>L15*1000</f>
+        <v>4645.7333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="103">
+        <f>428.8/1.22</f>
+        <v>351.47540983606558</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="103">
+        <f>2145.4/1.22</f>
+        <v>1758.5245901639346</v>
+      </c>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="103">
+        <f>2024.6/(39/60)</f>
+        <v>3114.7692307692305</v>
+      </c>
+      <c r="I16" s="104"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="108"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="114"/>
+      <c r="B17" s="103">
+        <f>424.4/1.21</f>
+        <v>350.74380165289256</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="103">
+        <f>1986.8/1.16</f>
+        <v>1712.7586206896553</v>
+      </c>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="103">
+        <f>2065.8/(39/60)</f>
+        <v>3178.1538461538462</v>
+      </c>
+      <c r="I17" s="104"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="105"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="114"/>
+      <c r="B18" s="103">
+        <f>368.3/1.11</f>
+        <v>331.80180180180179</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="103">
+        <f>2012/1.16</f>
+        <v>1734.4827586206898</v>
+      </c>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="103">
+        <f>2031.6/(39/60)</f>
+        <v>3125.5384615384614</v>
+      </c>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="108"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="114"/>
+      <c r="B19" s="103">
+        <f>404/1.19</f>
+        <v>339.49579831932772</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="103">
+        <f>2027.7/1.17</f>
+        <v>1733.0769230769233</v>
+      </c>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="103">
+        <f>2047.4/(39/60)</f>
+        <v>3149.8461538461538</v>
+      </c>
+      <c r="I19" s="104"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="105"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="114"/>
+      <c r="B20" s="103">
+        <f>415.5/1.2</f>
+        <v>346.25</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="103">
+        <f>2031.7/1.18</f>
+        <v>1721.7796610169494</v>
+      </c>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="103">
+        <f>2058.3/(39/60)</f>
+        <v>3166.6153846153848</v>
+      </c>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="115"/>
+      <c r="B21" s="103">
+        <f>421.9/1.21</f>
+        <v>348.67768595041321</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="103">
+        <f>2032.4/1.17</f>
+        <v>1737.0940170940173</v>
+      </c>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="103">
+        <f>2313.1/(44/60)</f>
+        <v>3154.227272727273</v>
+      </c>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="101"/>
+      <c r="M22" s="102"/>
+    </row>
+    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="94">
+        <f>(19989.14*1000)/($O$1*$O$2)</f>
+        <v>333.15233333333333</v>
+      </c>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="94">
+        <f>(99999.52*1000)/($O$1*$O$2)</f>
+        <v>1666.6586666666667</v>
+      </c>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="94">
+        <f>1*(199996.73*1000)/($O$1*$O$2)</f>
+        <v>3333.2788333333333</v>
+      </c>
+      <c r="I23" s="95"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
+    </row>
+    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26" s="61">
+        <v>5.7666666666666666</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D33" si="0">A26*$D$34+$G$34</f>
+        <v>6.1113200000000001</v>
+      </c>
+      <c r="E26" s="70">
+        <f>(B26-D26)/B26</f>
+        <v>-5.9766473988439331E-2</v>
+      </c>
+      <c r="I26">
+        <v>31</v>
+      </c>
+      <c r="J26" s="61">
+        <f>I26*$D$34+$G$34</f>
+        <v>6.1113200000000001</v>
+      </c>
+      <c r="N26">
+        <v>31</v>
+      </c>
+      <c r="O26" s="61">
+        <v>5.3861800000000004</v>
+      </c>
+      <c r="P26" s="61">
+        <v>0.26573999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="55">
+        <f>(A26*B27)/B26</f>
+        <v>179.19075144508673</v>
+      </c>
+      <c r="B27" s="61">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>33.658498786127176</v>
+      </c>
+      <c r="E27" s="70">
+        <f t="shared" ref="E27:E33" si="1">(B27-D27)/B27</f>
+        <v>-9.754963583815196E-3</v>
+      </c>
+      <c r="I27">
+        <v>170</v>
+      </c>
+      <c r="J27" s="61">
+        <f t="shared" ref="J27:J31" si="2">I27*$D$34+$G$34</f>
+        <v>31.950029999999998</v>
+      </c>
+      <c r="N27">
+        <v>170</v>
+      </c>
+      <c r="O27" s="61">
+        <v>34.091529999999999</v>
+      </c>
+      <c r="P27" s="61">
+        <v>0.49636999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="55">
+        <f t="shared" ref="A28:A32" si="3">(A27*B28)/B27</f>
+        <v>895.95375722543361</v>
+      </c>
+      <c r="B28" s="61">
+        <v>166.66666666666666</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>166.89757393063584</v>
+      </c>
+      <c r="E28" s="70">
+        <f t="shared" si="1"/>
+        <v>-1.3854435838151177E-3</v>
+      </c>
+      <c r="I28">
+        <v>853</v>
+      </c>
+      <c r="J28" s="61">
+        <f t="shared" si="2"/>
+        <v>158.91289999999998</v>
+      </c>
+      <c r="N28">
+        <v>853</v>
+      </c>
+      <c r="O28" s="61">
+        <v>180.28805</v>
+      </c>
+      <c r="P28" s="61">
+        <v>4.3831899999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="55">
+        <f t="shared" si="3"/>
+        <v>1343.9306358381505</v>
+      </c>
+      <c r="B29" s="61">
+        <v>250</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>250.17199589595378</v>
+      </c>
+      <c r="E29" s="70">
+        <f t="shared" si="1"/>
+        <v>-6.8798358381513933E-4</v>
+      </c>
+      <c r="I29">
+        <v>1707</v>
+      </c>
+      <c r="J29" s="61">
+        <f t="shared" si="2"/>
+        <v>317.66296</v>
+      </c>
+      <c r="N29">
+        <v>1707</v>
+      </c>
+      <c r="O29" s="61">
+        <v>344.74074999999999</v>
+      </c>
+      <c r="P29" s="61">
+        <v>7.6693600000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="55">
+        <f t="shared" si="3"/>
+        <v>1791.9075144508672</v>
+      </c>
+      <c r="B30" s="61">
+        <v>333.33333333333331</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>333.4464178612717</v>
+      </c>
+      <c r="E30" s="70">
+        <f t="shared" si="1"/>
+        <v>-3.3925358381515028E-4</v>
+      </c>
+      <c r="I30">
+        <v>8539</v>
+      </c>
+      <c r="J30" s="61">
+        <f t="shared" si="2"/>
+        <v>1587.66344</v>
+      </c>
+      <c r="N30">
+        <v>8539</v>
+      </c>
+      <c r="O30" s="61">
+        <v>1732.9527599999999</v>
+      </c>
+      <c r="P30" s="61">
+        <v>15.531040000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="55">
+        <f t="shared" si="3"/>
+        <v>8959.5375722543376</v>
+      </c>
+      <c r="B31" s="61">
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1665.8371693063586</v>
+      </c>
+      <c r="E31" s="70">
+        <f t="shared" si="1"/>
+        <v>4.9769841618485771E-4</v>
+      </c>
+      <c r="I31">
+        <v>17079</v>
+      </c>
+      <c r="J31" s="61">
+        <f t="shared" si="2"/>
+        <v>3175.1640400000001</v>
+      </c>
+      <c r="N31">
+        <v>17079</v>
+      </c>
+      <c r="O31" s="61">
+        <v>3148.1917199999998</v>
+      </c>
+      <c r="P31" s="61">
+        <v>24.110410000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="55">
+        <f t="shared" si="3"/>
+        <v>17919.075144508675</v>
+      </c>
+      <c r="B32" s="61">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>3331.3256086127176</v>
+      </c>
+      <c r="E32" s="70">
+        <f t="shared" si="1"/>
+        <v>6.0231741618476916E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>25000</v>
+      </c>
+      <c r="B33" s="61">
+        <v>4645.7333333333336</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>4647.5987299999997</v>
+      </c>
+      <c r="E33" s="70">
+        <f t="shared" si="1"/>
+        <v>-4.0152900152099321E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="59">
+        <v>0.18589</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="60">
+        <v>0.34872999999999998</v>
+      </c>
+      <c r="M34" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="59">
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="P34" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="R34" s="60">
+        <v>27.384129999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B35" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="M35" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="N35" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35">
+        <v>0.99887000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H37" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H38" s="74">
+        <f>(J38-R34)/O34</f>
+        <v>15973.218001074692</v>
+      </c>
+      <c r="I38" s="65">
+        <f>J38*60</f>
+        <v>180000</v>
+      </c>
+      <c r="J38">
+        <v>3000</v>
+      </c>
+      <c r="K38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H39" s="74">
+        <v>16120</v>
+      </c>
+      <c r="I39">
+        <v>180000</v>
+      </c>
+      <c r="J39" s="55">
+        <f>2.7623*1000/(56/60)</f>
+        <v>2959.6071428571431</v>
+      </c>
+      <c r="K39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J40" s="55">
+        <f>2.7897*1000/(57/60)</f>
+        <v>2936.5263157894738</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J41" s="55">
+        <f>2.717*1000/(55/60)</f>
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J42" s="55">
+        <f>2.6923*1000/(55/60)</f>
+        <v>2937.0545454545454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J43" s="55">
+        <f>2.685*1000/(55/60)</f>
+        <v>2929.090909090909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J44" s="55">
+        <f>SUM(J39:J43)/5</f>
+        <v>2945.2557826384136</v>
+      </c>
+      <c r="K44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J45" s="55">
+        <f>(J38-J44)/J38*100</f>
+        <v>1.8248072453862125</v>
+      </c>
+      <c r="K45" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="79">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="S7:T7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>5.1347500000000004</v>
-      </c>
-      <c r="C1">
-        <v>33.620690000000003</v>
-      </c>
-      <c r="D1">
-        <v>178.89908</v>
-      </c>
-      <c r="E1">
-        <v>370.63636000000002</v>
-      </c>
-      <c r="F1">
-        <v>1752.1359199999999</v>
-      </c>
-      <c r="G1">
-        <v>3476.32258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5.3305199999999999</v>
-      </c>
-      <c r="C2">
-        <v>32.99145</v>
-      </c>
-      <c r="D2">
-        <v>174.77476999999999</v>
-      </c>
-      <c r="E2">
-        <v>368.16514000000001</v>
-      </c>
-      <c r="F2">
-        <v>1726.7326700000001</v>
-      </c>
-      <c r="G2">
-        <v>3498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5.2631600000000001</v>
-      </c>
-      <c r="C3">
-        <v>32.93103</v>
-      </c>
-      <c r="D3">
-        <v>176.63636</v>
-      </c>
-      <c r="E3">
-        <v>368.92856999999998</v>
-      </c>
-      <c r="F3">
-        <v>1750.9803899999999</v>
-      </c>
-      <c r="G3">
-        <v>3557.4193500000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>5.5555599999999998</v>
-      </c>
-      <c r="C4">
-        <v>33.043480000000002</v>
-      </c>
-      <c r="D4">
-        <v>178.14814999999999</v>
-      </c>
-      <c r="E4">
-        <v>366.03604000000001</v>
-      </c>
-      <c r="F4">
-        <v>1766.37255</v>
-      </c>
-      <c r="G4">
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>5.1330200000000001</v>
-      </c>
-      <c r="C5">
-        <v>33.421050000000001</v>
-      </c>
-      <c r="D5">
-        <v>175.9633</v>
-      </c>
-      <c r="E5">
-        <v>367.98246</v>
-      </c>
-      <c r="F5">
-        <v>1738.2</v>
-      </c>
-      <c r="G5">
-        <v>3516.1818199999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>4.8965500000000004</v>
-      </c>
-      <c r="C6">
-        <v>33.75</v>
-      </c>
-      <c r="D6">
-        <v>174.27273</v>
-      </c>
-      <c r="E6">
-        <v>358.49558000000002</v>
-      </c>
-      <c r="F6">
-        <v>1734.7</v>
-      </c>
-      <c r="G6">
-        <v>3512.68966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>33.620690000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>32.99145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>32.93103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>33.043480000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>33.421050000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>33.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Origin50.Graph" shapeId="9231" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Origin50.Graph" shapeId="9231" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Origin50.Graph" shapeId="9235" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Origin50.Graph" shapeId="9235" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/Calibracion.xlsx
+++ b/Calibracion.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Rate" sheetId="5" r:id="rId1"/>
     <sheet name="3mL Bomba 2" sheetId="4" r:id="rId2"/>
     <sheet name="3mL Bomba 1" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -917,7 +918,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="121">
   <si>
     <t>uL/h</t>
   </si>
@@ -1380,6 +1381,9 @@
   </si>
   <si>
     <t>Repeticiones (mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ml/min</t>
   </si>
 </sst>
 </file>
@@ -2259,16 +2263,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2285,6 +2287,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2295,6 +2351,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2302,76 +2376,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2608,15 +2612,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>50802</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>114299</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>9527</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>161924</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2975,7 +2979,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,40 +3315,40 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="53">
         <v>16</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="87"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="87"/>
+      <c r="I8" s="95"/>
       <c r="J8">
         <v>25</v>
       </c>
-      <c r="K8" s="87" t="s">
+      <c r="K8" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="87"/>
+      <c r="L8" s="95"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="54">
         <v>200</v>
       </c>
@@ -3359,24 +3363,24 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="87" t="s">
+      <c r="H9" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="55">
         <f>C10*J8</f>
         <v>1272.3724999999999</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="95"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="85"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="54">
         <v>50.8949</v>
       </c>
@@ -3394,10 +3398,10 @@
       <c r="L10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="85"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="54">
         <v>8</v>
       </c>
@@ -3449,12 +3453,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="H8:I8"/>
@@ -3463,6 +3461,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
@@ -3477,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,29 +3511,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="118" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="118" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="118" t="s">
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="119"/>
-      <c r="M1" s="120"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
       <c r="N1" s="76" t="s">
         <v>8</v>
       </c>
@@ -3559,7 +3563,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
+      <c r="A2" s="111"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3682,30 +3686,30 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="104">
         <f>36.2/7.05</f>
         <v>5.1347517730496461</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="103">
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="104">
         <f>39/1.16</f>
         <v>33.620689655172413</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="103">
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="104">
         <f>195/1.09</f>
         <v>178.89908256880733</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="108"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
       <c r="N4" s="63" t="s">
         <v>90</v>
       </c>
@@ -3721,28 +3725,28 @@
       <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="103">
+      <c r="A5" s="102"/>
+      <c r="B5" s="104">
         <f>37.9/7.11</f>
         <v>5.3305203938115326</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="103">
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="104">
         <f>38.6/1.17</f>
         <v>32.991452991452995</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="103">
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="104">
         <f>194/1.11</f>
         <v>174.77477477477476</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="106"/>
       <c r="N5">
         <f>'Flow Rate'!C16</f>
         <v>21610</v>
@@ -3755,90 +3759,90 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="103">
+      <c r="A6" s="102"/>
+      <c r="B6" s="104">
         <f>37/7.03</f>
         <v>5.2631578947368416</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="103">
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104">
         <f>38.2/1.16</f>
         <v>32.931034482758626</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="103">
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="104">
         <f>194.3/1.1</f>
         <v>176.63636363636363</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="108"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="109"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="103">
+      <c r="A7" s="102"/>
+      <c r="B7" s="104">
         <f>36/6.48</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="103">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="104">
         <f>38/1.15</f>
         <v>33.04347826086957</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="103">
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="104">
         <f>192.4/1.08</f>
         <v>178.14814814814815</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="106"/>
       <c r="O7" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="109" t="s">
+      <c r="P7" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="Q7" s="109"/>
+      <c r="Q7" s="97"/>
       <c r="R7" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="109" t="s">
+      <c r="S7" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="T7" s="109"/>
+      <c r="T7" s="97"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="103">
+      <c r="A8" s="102"/>
+      <c r="B8" s="104">
         <f>32.8/6.39</f>
         <v>5.1330203442879494</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="103">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="104">
         <f>38.1/1.14</f>
         <v>33.421052631578952</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="103">
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104">
         <f>191.8/1.09</f>
         <v>175.96330275229357</v>
       </c>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="108"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="109"/>
       <c r="P8" s="65" t="s">
         <v>95</v>
       </c>
@@ -3853,35 +3857,35 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
-      <c r="B9" s="103">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104">
         <f>35.5/7.25</f>
         <v>4.8965517241379306</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="103">
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="104">
         <f>37.8/1.12</f>
         <v>33.749999999999993</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103">
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="104">
         <f>191.7/1.1</f>
         <v>174.27272727272725</v>
       </c>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="108"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="109"/>
       <c r="O9" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="109" t="s">
+      <c r="P9" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="109"/>
+      <c r="Q9" s="97"/>
       <c r="R9" t="s">
         <v>60</v>
       </c>
@@ -3898,26 +3902,26 @@
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="100" t="s">
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="100" t="s">
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="100" t="s">
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="102"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="117"/>
       <c r="P10" s="65" t="s">
         <v>102</v>
       </c>
@@ -3943,31 +3947,31 @@
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="94">
+      <c r="B11" s="112">
         <f>(336.12*1000)/($O$1*$O$2)</f>
         <v>5.6020000000000003</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="94">
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="112">
         <f>(1995.71*1000)/($O$1*$O$2)</f>
         <v>33.261833333333335</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="94">
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="112">
         <f>(9999.6*1000)/($O$1*$O$2)</f>
         <v>166.66</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="96"/>
-      <c r="O11" s="121" t="s">
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="114"/>
+      <c r="O11" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="122">
+      <c r="P11" s="85">
         <f>T9/(S10*U10)*1000</f>
         <v>45244.307951863069</v>
       </c>
@@ -3982,34 +3986,34 @@
       <c r="T12" s="61"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="118" t="s">
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="119"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="118" t="s">
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="110" t="s">
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="112"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="120"/>
       <c r="S13" s="61"/>
       <c r="T13" s="61"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4097,201 +4101,201 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="104">
         <f>407.7/1.1</f>
         <v>370.63636363636357</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="103">
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="104">
         <f>1804.7/1.03</f>
         <v>1752.1359223300972</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="103">
+      <c r="F16" s="105"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="104">
         <f>1796.1/(31/60)</f>
         <v>3476.3225806451605</v>
       </c>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="108"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="103">
+      <c r="A17" s="102"/>
+      <c r="B17" s="104">
         <f>401.3/1.09</f>
         <v>368.16513761467888</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="103">
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="104">
         <f>1744/1.01</f>
         <v>1726.7326732673266</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="103">
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="104">
         <f>1690.7/(29/60)</f>
         <v>3498</v>
       </c>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="106"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="103">
+      <c r="A18" s="102"/>
+      <c r="B18" s="104">
         <f>413.2/1.12</f>
         <v>368.92857142857139</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="103">
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="104">
         <f>1786/1.02</f>
         <v>1750.9803921568628</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="103">
+      <c r="F18" s="105"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="104">
         <f>1838/(31/60)</f>
         <v>3557.4193548387093</v>
       </c>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="108"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="109"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="103">
+      <c r="A19" s="102"/>
+      <c r="B19" s="104">
         <f>406.3/1.11</f>
         <v>366.03603603603602</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="103">
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="104">
         <f>1801.7/1.02</f>
         <v>1766.372549019608</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="103">
+      <c r="F19" s="105"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="104">
         <f>1751/(30/60)</f>
         <v>3502</v>
       </c>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
-      <c r="B20" s="103">
+      <c r="A20" s="102"/>
+      <c r="B20" s="104">
         <f>419.5/1.14</f>
         <v>367.98245614035091</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="103">
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="104">
         <f>1738.2/1</f>
         <v>1738.2</v>
       </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="103">
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="104">
         <f>1933.9/(33/60)</f>
         <v>3516.181818181818</v>
       </c>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="108"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="109"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
-      <c r="B21" s="103">
+      <c r="A21" s="103"/>
+      <c r="B21" s="104">
         <f>405.1/1.13</f>
         <v>358.49557522123899</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="103">
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="104">
         <f>1734.7/1</f>
         <v>1734.7</v>
       </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="103">
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="104">
         <f>1697.8/(29/60)</f>
         <v>3512.6896551724135</v>
       </c>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="108"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="109"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="100" t="s">
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="100" t="s">
+      <c r="F22" s="116"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="100" t="s">
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="101"/>
-      <c r="M22" s="102"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="117"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="94">
+      <c r="B23" s="112">
         <f>(19999.15*1000)/($O$1*$O$2)</f>
         <v>333.31916666666666</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="94">
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="112">
         <f>(99995.75*1000)/($O$1*$O$2)</f>
         <v>1666.5958333333333</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="94">
+      <c r="F23" s="113"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="112">
         <f>1*(199991.48*1000)/($O$1*$O$2)</f>
         <v>3333.1913333333332</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="123"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -4383,7 +4387,7 @@
         <v>190</v>
       </c>
       <c r="J27" s="61">
-        <f t="shared" ref="J26:J31" si="2">I27*$D$34+$G$34</f>
+        <f t="shared" ref="J27:J31" si="2">I27*$D$34+$G$34</f>
         <v>35.667830000000002</v>
       </c>
       <c r="N27">
@@ -4736,10 +4740,10 @@
       <c r="H46" t="s">
         <v>116</v>
       </c>
-      <c r="I46" s="123" t="s">
+      <c r="I46" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="J46" s="123"/>
+      <c r="J46" s="96"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
@@ -4787,17 +4791,50 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -4805,6 +4842,17 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
@@ -4813,60 +4861,16 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="K13:M13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
     <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4931,8 +4935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4963,29 +4967,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="110" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="110" t="s">
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="110" t="s">
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="120"/>
       <c r="N1" s="76" t="s">
         <v>8</v>
       </c>
@@ -5015,7 +5019,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
+      <c r="A2" s="111"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -5138,30 +5142,30 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="104">
         <f>46.6/9.39</f>
         <v>4.9627263045793395</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="103">
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="104">
         <f>48.1/1.44</f>
         <v>33.402777777777779</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="103">
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="104">
         <f>245.8/1.4</f>
         <v>175.57142857142858</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="108"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
       <c r="N4" s="63" t="s">
         <v>90</v>
       </c>
@@ -5177,28 +5181,28 @@
       <c r="R4" s="82"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="103">
+      <c r="A5" s="102"/>
+      <c r="B5" s="104">
         <f>46.9/9.08</f>
         <v>5.1651982378854626</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="103">
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="104">
         <f>48/1.43</f>
         <v>33.566433566433567</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="103">
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="104">
         <f>245.5/1.33</f>
         <v>184.58646616541353</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="106"/>
       <c r="N5">
         <v>20381</v>
       </c>
@@ -5210,90 +5214,90 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="103">
+      <c r="A6" s="102"/>
+      <c r="B6" s="104">
         <f>46.6/8.53</f>
         <v>5.4630715123094964</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="103">
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104">
         <f>47.8/1.39</f>
         <v>34.388489208633096</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="103">
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="104">
         <f>244.7/1.37</f>
         <v>178.61313868613138</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="108"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="109"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="103">
+      <c r="A7" s="102"/>
+      <c r="B7" s="104">
         <f>46.4/8.39</f>
         <v>5.5303933253873652</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="103">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="104">
         <f>47.5/1.37</f>
         <v>34.671532846715323</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="103">
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="104">
         <f>243.4/1.32</f>
         <v>184.39393939393938</v>
       </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="106"/>
       <c r="O7" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="109" t="s">
+      <c r="P7" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="Q7" s="109"/>
+      <c r="Q7" s="97"/>
       <c r="R7" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="109" t="s">
+      <c r="S7" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="T7" s="109"/>
+      <c r="T7" s="97"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="103">
+      <c r="A8" s="102"/>
+      <c r="B8" s="104">
         <f>47.8/8.44</f>
         <v>5.6635071090047395</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="103">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="104">
         <f>47.6/1.39</f>
         <v>34.244604316546763</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="103">
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="104">
         <f>243.5/1.39</f>
         <v>175.17985611510792</v>
       </c>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="108"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="109"/>
       <c r="P8" s="65" t="s">
         <v>95</v>
       </c>
@@ -5308,35 +5312,35 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="103">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104">
         <f>47.3/8.55</f>
         <v>5.5321637426900576</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="103">
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="104">
         <f>47.3/1.38</f>
         <v>34.275362318840578</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103">
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="104">
         <f>243.9/1.33</f>
         <v>183.38345864661653</v>
       </c>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="108"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="109"/>
       <c r="O9" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="109" t="s">
+      <c r="P9" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="109"/>
+      <c r="Q9" s="97"/>
       <c r="R9" t="s">
         <v>60</v>
       </c>
@@ -5353,26 +5357,26 @@
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="100" t="s">
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="100" t="s">
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="100" t="s">
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="102"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="117"/>
       <c r="P10" s="77" t="s">
         <v>102</v>
       </c>
@@ -5397,31 +5401,31 @@
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="94">
+      <c r="B11" s="112">
         <f>(363.12*1000)/($O$1*$O$2)</f>
         <v>6.0519999999999996</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="94">
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="112">
         <f>(1990.7*1000)/($O$1*$O$2)</f>
         <v>33.178333333333335</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="94">
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="112">
         <f>(9988.7*1000)/($O$1*$O$2)</f>
         <v>166.47833333333332</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="96"/>
-      <c r="O11" s="121" t="s">
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="114"/>
+      <c r="O11" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="P11" s="122">
+      <c r="P11" s="85">
         <f>T9/(S10*U10)*1000</f>
         <v>21374.125424222955</v>
       </c>
@@ -5432,32 +5436,32 @@
       <c r="T11" s="61"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="110" t="s">
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="110" t="s">
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="110" t="s">
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="112"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="120"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
@@ -5545,201 +5549,201 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="104">
         <f>428.8/1.22</f>
         <v>351.47540983606558</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="103">
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="104">
         <f>2145.4/1.22</f>
         <v>1758.5245901639346</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="103">
+      <c r="F16" s="105"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="104">
         <f>2024.6/(39/60)</f>
         <v>3114.7692307692305</v>
       </c>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="108"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="103">
+      <c r="A17" s="102"/>
+      <c r="B17" s="104">
         <f>424.4/1.21</f>
         <v>350.74380165289256</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="103">
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="104">
         <f>1986.8/1.16</f>
         <v>1712.7586206896553</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="103">
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="104">
         <f>2065.8/(39/60)</f>
         <v>3178.1538461538462</v>
       </c>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="106"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="103">
+      <c r="A18" s="102"/>
+      <c r="B18" s="104">
         <f>368.3/1.11</f>
         <v>331.80180180180179</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="103">
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="104">
         <f>2012/1.16</f>
         <v>1734.4827586206898</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="103">
+      <c r="F18" s="105"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="104">
         <f>2031.6/(39/60)</f>
         <v>3125.5384615384614</v>
       </c>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="108"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="109"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="103">
+      <c r="A19" s="102"/>
+      <c r="B19" s="104">
         <f>404/1.19</f>
         <v>339.49579831932772</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="103">
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="104">
         <f>2027.7/1.17</f>
         <v>1733.0769230769233</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="103">
+      <c r="F19" s="105"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="104">
         <f>2047.4/(39/60)</f>
         <v>3149.8461538461538</v>
       </c>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
-      <c r="B20" s="103">
+      <c r="A20" s="102"/>
+      <c r="B20" s="104">
         <f>415.5/1.2</f>
         <v>346.25</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="103">
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="104">
         <f>2031.7/1.18</f>
         <v>1721.7796610169494</v>
       </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="103">
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="104">
         <f>2058.3/(39/60)</f>
         <v>3166.6153846153848</v>
       </c>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="108"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="109"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
-      <c r="B21" s="103">
+      <c r="A21" s="103"/>
+      <c r="B21" s="104">
         <f>421.9/1.21</f>
         <v>348.67768595041321</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="103">
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="104">
         <f>2032.4/1.17</f>
         <v>1737.0940170940173</v>
       </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="103">
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="104">
         <f>2313.1/(44/60)</f>
         <v>3154.227272727273</v>
       </c>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="108"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="109"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="100" t="s">
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="100" t="s">
+      <c r="F22" s="116"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="100" t="s">
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="101"/>
-      <c r="M22" s="102"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="117"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="94">
+      <c r="B23" s="112">
         <f>(19989.14*1000)/($O$1*$O$2)</f>
         <v>333.15233333333333</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="94">
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="112">
         <f>(99999.52*1000)/($O$1*$O$2)</f>
         <v>1666.6586666666667</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="94">
+      <c r="F23" s="113"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="112">
         <f>1*(199996.73*1000)/($O$1*$O$2)</f>
         <v>3333.2788333333333</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="123"/>
     </row>
     <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
@@ -6022,7 +6026,7 @@
       <c r="G34" s="60">
         <v>0.34872999999999998</v>
       </c>
-      <c r="M34" s="121" t="s">
+      <c r="M34" s="84" t="s">
         <v>59</v>
       </c>
       <c r="N34" s="64" t="s">
@@ -6147,6 +6151,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:D4"/>
@@ -6163,69 +6230,6 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="S7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6284,4 +6288,75 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="67">
+        <v>60</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <f>A2*$D$1*$D$2</f>
+        <v>30000</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B4" si="0">A3*$D$1*$D$2</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>